--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\造物空间\IWedding\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43903\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,65 +24,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿三打撒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根本不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb't'比特币不过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的撒单独给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfbg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">曝光度 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿萨德撒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置类型
+1、地面放置
+2、桌面放置
+3、贴墙放置
+4、贴顶放置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格
+1、中式
+2、欧式
+3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型
+1、装饰
+2、
+3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿三打撒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根本不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>的个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb't'比特币不过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>的撒单独给</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfbg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">曝光度 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿萨德撒</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶视图路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,23 +128,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顶视图路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略图路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,9 +175,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,93 +502,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>323</v>
+      <c r="G4" s="3">
+        <v>12312</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>12312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
+      <c r="G5" s="3">
         <v>12312</v>
       </c>
     </row>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>图片</t>
   </si>
@@ -342,6 +342,72 @@
   </si>
   <si>
     <t>Item/new/oldty/6</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/chinese/2</t>
+  </si>
+  <si>
+    <t>Item/ChineseStage/02</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/chinese/14</t>
+  </si>
+  <si>
+    <t>Item/ChineseStage/14</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/chinese/15</t>
+  </si>
+  <si>
+    <t>Item/ChineseStage/15</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/chinese/16</t>
+  </si>
+  <si>
+    <t>Item/ChineseStage/16</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/chinese/17</t>
+  </si>
+  <si>
+    <t>Item/ChineseStage/17</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/chinese/18</t>
+  </si>
+  <si>
+    <t>Item/ChineseStage/18</t>
+  </si>
+  <si>
+    <t>Item/new/oldty/img/5-5</t>
+  </si>
+  <si>
+    <t>Item/new/oldty/5/pre/flower</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/gantry/1</t>
+  </si>
+  <si>
+    <t>Item/Gantry/Gantry</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/gantry/2</t>
+  </si>
+  <si>
+    <t>Item/Gantry/Gantry1</t>
+  </si>
+  <si>
+    <t>Item/20180207/img/4</t>
+  </si>
+  <si>
+    <t>Item/20180207/jiazi</t>
+  </si>
+  <si>
+    <t>Item/20180207/img/5</t>
+  </si>
+  <si>
+    <t>Item/20180207/jiazi2</t>
   </si>
   <si>
     <t>Item/new/tx/img/light/1</t>
@@ -517,9 +583,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -532,21 +598,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,38 +635,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,25 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,11 +671,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,8 +702,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,6 +747,132 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -696,91 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,37 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,37 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,24 +941,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -911,32 +959,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,8 +986,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,6 +1017,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -983,10 +1049,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,133 +1061,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,10 +1523,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1469,7 +1535,7 @@
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="47.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.375" style="1" customWidth="1"/>
@@ -2690,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="1">
-        <v>20010001</v>
+        <v>10080033</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>106</v>
@@ -2702,13 +2768,13 @@
         <v>107</v>
       </c>
       <c r="H47" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
       </c>
       <c r="J47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2716,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="1">
-        <v>20010002</v>
+        <v>10080034</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>108</v>
@@ -2728,13 +2794,13 @@
         <v>109</v>
       </c>
       <c r="H48" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
       </c>
       <c r="J48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2742,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="1">
-        <v>20010003</v>
+        <v>10080035</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>110</v>
@@ -2754,13 +2820,13 @@
         <v>111</v>
       </c>
       <c r="H49" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
       </c>
       <c r="J49" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2768,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="1">
-        <v>20010004</v>
+        <v>10080036</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>112</v>
@@ -2780,13 +2846,13 @@
         <v>113</v>
       </c>
       <c r="H50" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
       <c r="J50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2794,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="1">
-        <v>20010005</v>
+        <v>10080037</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>114</v>
@@ -2806,13 +2872,13 @@
         <v>115</v>
       </c>
       <c r="H51" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
       </c>
       <c r="J51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2820,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="1">
-        <v>20010006</v>
+        <v>10080038</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>116</v>
@@ -2832,21 +2898,21 @@
         <v>117</v>
       </c>
       <c r="H52" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="J52" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>1</v>
       </c>
       <c r="B53" s="1">
-        <v>20010007</v>
+        <v>10080039</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>118</v>
@@ -2857,22 +2923,13 @@
       <c r="G53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H53" s="1">
-        <v>10</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>1</v>
       </c>
       <c r="B54" s="1">
-        <v>20020001</v>
+        <v>10060001</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>120</v>
@@ -2884,9 +2941,9 @@
         <v>121</v>
       </c>
       <c r="H54" s="1">
-        <v>11</v>
-      </c>
-      <c r="I54" s="1">
+        <v>6</v>
+      </c>
+      <c r="I54" s="3">
         <v>1</v>
       </c>
       <c r="J54" s="1">
@@ -2898,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="1">
-        <v>20020002</v>
+        <v>10060002</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>122</v>
@@ -2910,7 +2967,7 @@
         <v>123</v>
       </c>
       <c r="H55" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -2924,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>20020003</v>
+        <v>10060003</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>124</v>
@@ -2936,7 +2993,7 @@
         <v>125</v>
       </c>
       <c r="H56" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -2950,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="1">
-        <v>20020004</v>
+        <v>10060004</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>126</v>
@@ -2962,7 +3019,7 @@
         <v>127</v>
       </c>
       <c r="H57" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -2976,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="1">
-        <v>20030001</v>
+        <v>20010001</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>128</v>
@@ -2988,7 +3045,7 @@
         <v>129</v>
       </c>
       <c r="H58" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -3002,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <v>20030002</v>
+        <v>20010002</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>130</v>
@@ -3014,7 +3071,7 @@
         <v>131</v>
       </c>
       <c r="H59" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -3028,10 +3085,8 @@
         <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="C60"/>
-      <c r="D60"/>
+        <v>20010003</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>132</v>
       </c>
@@ -3042,9 +3097,9 @@
         <v>133</v>
       </c>
       <c r="H60" s="1">
-        <v>13</v>
-      </c>
-      <c r="I60" s="3">
+        <v>10</v>
+      </c>
+      <c r="I60" s="1">
         <v>1</v>
       </c>
       <c r="J60" s="1">
@@ -3056,10 +3111,8 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>30010002</v>
-      </c>
-      <c r="C61"/>
-      <c r="D61"/>
+        <v>20010004</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>134</v>
       </c>
@@ -3070,7 +3123,7 @@
         <v>135</v>
       </c>
       <c r="H61" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
@@ -3084,10 +3137,8 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>30010003</v>
-      </c>
-      <c r="C62"/>
-      <c r="D62"/>
+        <v>20010005</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>136</v>
       </c>
@@ -3098,7 +3149,7 @@
         <v>137</v>
       </c>
       <c r="H62" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
@@ -3112,10 +3163,8 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>30010004</v>
-      </c>
-      <c r="C63"/>
-      <c r="D63"/>
+        <v>20010006</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>138</v>
       </c>
@@ -3126,12 +3175,12 @@
         <v>139</v>
       </c>
       <c r="H63" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3140,10 +3189,8 @@
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>30010005</v>
-      </c>
-      <c r="C64"/>
-      <c r="D64"/>
+        <v>20010007</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>140</v>
       </c>
@@ -3154,7 +3201,7 @@
         <v>141</v>
       </c>
       <c r="H64" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -3168,10 +3215,8 @@
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>30010006</v>
-      </c>
-      <c r="C65"/>
-      <c r="D65"/>
+        <v>20020001</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
       </c>
@@ -3182,7 +3227,7 @@
         <v>143</v>
       </c>
       <c r="H65" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -3196,10 +3241,8 @@
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>30010007</v>
-      </c>
-      <c r="C66"/>
-      <c r="D66"/>
+        <v>20020002</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>144</v>
       </c>
@@ -3210,7 +3253,7 @@
         <v>145</v>
       </c>
       <c r="H66" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I66" s="1">
         <v>1</v>
@@ -3224,10 +3267,8 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>30010008</v>
-      </c>
-      <c r="C67"/>
-      <c r="D67"/>
+        <v>20020003</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>146</v>
       </c>
@@ -3238,7 +3279,7 @@
         <v>147</v>
       </c>
       <c r="H67" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
@@ -3252,10 +3293,8 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>30010009</v>
-      </c>
-      <c r="C68"/>
-      <c r="D68"/>
+        <v>20020004</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>148</v>
       </c>
@@ -3266,7 +3305,7 @@
         <v>149</v>
       </c>
       <c r="H68" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
@@ -3280,10 +3319,8 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>30010010</v>
-      </c>
-      <c r="C69"/>
-      <c r="D69"/>
+        <v>20030001</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>150</v>
       </c>
@@ -3294,7 +3331,7 @@
         <v>151</v>
       </c>
       <c r="H69" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
@@ -3308,10 +3345,8 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>30010011</v>
-      </c>
-      <c r="C70"/>
-      <c r="D70"/>
+        <v>20030002</v>
+      </c>
       <c r="E70" s="1" t="s">
         <v>152</v>
       </c>
@@ -3322,7 +3357,7 @@
         <v>153</v>
       </c>
       <c r="H70" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="1">
         <v>1</v>
@@ -3336,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>30010012</v>
+        <v>30010001</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -3352,7 +3387,7 @@
       <c r="H71" s="1">
         <v>13</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="3">
         <v>1</v>
       </c>
       <c r="J71" s="1">
@@ -3364,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>30010013</v>
+        <v>30010002</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -3392,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>30010014</v>
+        <v>30010003</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -3420,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>30010015</v>
+        <v>30010004</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -3440,6 +3475,314 @@
         <v>1</v>
       </c>
       <c r="J74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1">
+        <v>30010005</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H75" s="1">
+        <v>13</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1">
+        <v>30010006</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H76" s="1">
+        <v>13</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1">
+        <v>30010007</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H77" s="1">
+        <v>13</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1">
+        <v>30010008</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H78" s="1">
+        <v>13</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1">
+        <v>30010009</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H79" s="1">
+        <v>13</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1">
+        <v>30010010</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H80" s="1">
+        <v>13</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1">
+        <v>30010011</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H81" s="1">
+        <v>13</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1">
+        <v>30010012</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H82" s="1">
+        <v>13</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1">
+        <v>30010013</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H83" s="1">
+        <v>13</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H84" s="1">
+        <v>13</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H85" s="1">
+        <v>13</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>图片</t>
   </si>
@@ -384,6 +384,36 @@
   </si>
   <si>
     <t>Item/new/oldty/5/pre/flower</t>
+  </si>
+  <si>
+    <t>Item/senxi/img/2</t>
+  </si>
+  <si>
+    <t>Item/senxi/flower</t>
+  </si>
+  <si>
+    <t>Item/senxi/img/3</t>
+  </si>
+  <si>
+    <t>Item/senxi/languan</t>
+  </si>
+  <si>
+    <t>Item/senxi/img/5</t>
+  </si>
+  <si>
+    <t>Item/senxi/shuteng</t>
+  </si>
+  <si>
+    <t>Item/senxi/img/7</t>
+  </si>
+  <si>
+    <t>Item/senxi/yezi1</t>
+  </si>
+  <si>
+    <t>Item/senxi/img/4</t>
+  </si>
+  <si>
+    <t>Item/senxi/muzhuang</t>
   </si>
   <si>
     <t>UI/ItemTool/WeddingToolImg/WP/gantry/1</t>
@@ -583,10 +613,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -594,21 +624,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,43 +644,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,7 +680,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -726,6 +732,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -734,8 +747,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,19 +780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,13 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,103 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,13 +828,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +942,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,21 +971,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -983,15 +998,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1009,11 +1015,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,6 +1045,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1049,43 +1079,49 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,100 +1130,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1523,10 +1553,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2907,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -2923,13 +2953,22 @@
       <c r="G53" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="H53" s="1">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>1</v>
       </c>
       <c r="B54" s="1">
-        <v>10060001</v>
+        <v>10080040</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>120</v>
@@ -2941,13 +2980,13 @@
         <v>121</v>
       </c>
       <c r="H54" s="1">
-        <v>6</v>
-      </c>
-      <c r="I54" s="3">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1">
         <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2955,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="1">
-        <v>10060002</v>
+        <v>10080041</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>122</v>
@@ -2967,13 +3006,13 @@
         <v>123</v>
       </c>
       <c r="H55" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
       </c>
       <c r="J55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2981,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>10060003</v>
+        <v>10080042</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>124</v>
@@ -2993,13 +3032,13 @@
         <v>125</v>
       </c>
       <c r="H56" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
       </c>
       <c r="J56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3007,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="1">
-        <v>10060004</v>
+        <v>10080043</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>126</v>
@@ -3019,13 +3058,13 @@
         <v>127</v>
       </c>
       <c r="H57" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
       </c>
       <c r="J57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3033,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="1">
-        <v>20010001</v>
+        <v>10080044</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>128</v>
@@ -3045,13 +3084,13 @@
         <v>129</v>
       </c>
       <c r="H58" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
       <c r="J58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3059,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <v>20010002</v>
+        <v>10060001</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>130</v>
@@ -3071,9 +3110,9 @@
         <v>131</v>
       </c>
       <c r="H59" s="1">
-        <v>10</v>
-      </c>
-      <c r="I59" s="1">
+        <v>6</v>
+      </c>
+      <c r="I59" s="3">
         <v>1</v>
       </c>
       <c r="J59" s="1">
@@ -3085,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>20010003</v>
+        <v>10060002</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>132</v>
@@ -3097,7 +3136,7 @@
         <v>133</v>
       </c>
       <c r="H60" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -3111,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>20010004</v>
+        <v>10060003</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>134</v>
@@ -3123,7 +3162,7 @@
         <v>135</v>
       </c>
       <c r="H61" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
@@ -3137,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>20010005</v>
+        <v>10060004</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>136</v>
@@ -3149,7 +3188,7 @@
         <v>137</v>
       </c>
       <c r="H62" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
@@ -3163,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>20010006</v>
+        <v>20010001</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>138</v>
@@ -3180,7 +3219,7 @@
       <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3189,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>20010007</v>
+        <v>20010002</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>140</v>
@@ -3215,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>20020001</v>
+        <v>20010003</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
@@ -3227,7 +3266,7 @@
         <v>143</v>
       </c>
       <c r="H65" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -3241,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>20020002</v>
+        <v>20010004</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>144</v>
@@ -3253,7 +3292,7 @@
         <v>145</v>
       </c>
       <c r="H66" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I66" s="1">
         <v>1</v>
@@ -3267,8 +3306,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>20020003</v>
-      </c>
+        <v>20010005</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
         <v>146</v>
       </c>
@@ -3279,7 +3320,7 @@
         <v>147</v>
       </c>
       <c r="H67" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
@@ -3293,8 +3334,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>20020004</v>
-      </c>
+        <v>20010006</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
         <v>148</v>
       </c>
@@ -3305,12 +3348,12 @@
         <v>149</v>
       </c>
       <c r="H68" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3319,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>20030001</v>
+        <v>20010007</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>150</v>
@@ -3331,7 +3374,7 @@
         <v>151</v>
       </c>
       <c r="H69" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
@@ -3345,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>20030002</v>
+        <v>20020001</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>152</v>
@@ -3357,7 +3400,7 @@
         <v>153</v>
       </c>
       <c r="H70" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I70" s="1">
         <v>1</v>
@@ -3371,10 +3414,8 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="C71"/>
-      <c r="D71"/>
+        <v>20020002</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>154</v>
       </c>
@@ -3385,9 +3426,9 @@
         <v>155</v>
       </c>
       <c r="H71" s="1">
-        <v>13</v>
-      </c>
-      <c r="I71" s="3">
+        <v>11</v>
+      </c>
+      <c r="I71" s="1">
         <v>1</v>
       </c>
       <c r="J71" s="1">
@@ -3399,10 +3440,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>30010002</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72"/>
+        <v>20020003</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
         <v>156</v>
       </c>
@@ -3413,7 +3454,7 @@
         <v>157</v>
       </c>
       <c r="H72" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
@@ -3427,10 +3468,8 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>30010003</v>
-      </c>
-      <c r="C73"/>
-      <c r="D73"/>
+        <v>20020004</v>
+      </c>
       <c r="E73" s="1" t="s">
         <v>158</v>
       </c>
@@ -3441,7 +3480,7 @@
         <v>159</v>
       </c>
       <c r="H73" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -3455,10 +3494,8 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>30010004</v>
-      </c>
-      <c r="C74"/>
-      <c r="D74"/>
+        <v>20030001</v>
+      </c>
       <c r="E74" s="1" t="s">
         <v>160</v>
       </c>
@@ -3469,7 +3506,7 @@
         <v>161</v>
       </c>
       <c r="H74" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="1">
         <v>1</v>
@@ -3483,10 +3520,8 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>30010005</v>
-      </c>
-      <c r="C75"/>
-      <c r="D75"/>
+        <v>20030002</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>162</v>
       </c>
@@ -3497,7 +3532,7 @@
         <v>163</v>
       </c>
       <c r="H75" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -3511,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>30010006</v>
+        <v>30010001</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -3527,7 +3562,7 @@
       <c r="H76" s="1">
         <v>13</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="3">
         <v>1</v>
       </c>
       <c r="J76" s="1">
@@ -3539,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>30010007</v>
+        <v>30010002</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -3567,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>30010008</v>
+        <v>30010003</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -3595,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>30010009</v>
+        <v>30010004</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
@@ -3623,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>30010010</v>
+        <v>30010005</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -3651,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>30010011</v>
+        <v>30010006</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -3679,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>30010012</v>
+        <v>30010007</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -3707,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>30010013</v>
+        <v>30010008</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -3735,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>30010014</v>
+        <v>30010009</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -3763,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>30010015</v>
+        <v>30010010</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -3783,6 +3818,146 @@
         <v>1</v>
       </c>
       <c r="J85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>30010011</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H86" s="1">
+        <v>13</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30010012</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H87" s="1">
+        <v>13</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1">
+        <v>30010013</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H88" s="1">
+        <v>13</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H89" s="1">
+        <v>13</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H90" s="1">
+        <v>13</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>图片</t>
   </si>
@@ -414,6 +414,18 @@
   </si>
   <si>
     <t>Item/senxi/muzhuang</t>
+  </si>
+  <si>
+    <t>Item/new/6/2/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/2/tree</t>
+  </si>
+  <si>
+    <t>Item/new/6/1/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/1/flower</t>
   </si>
   <si>
     <t>UI/ItemTool/WeddingToolImg/WP/gantry/1</t>
@@ -615,8 +627,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -628,29 +640,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,7 +699,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -703,14 +715,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,7 +754,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,27 +768,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -780,13 +792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,13 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,55 +834,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +864,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +912,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,13 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,37 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,23 +989,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,9 +1036,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,28 +1069,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1553,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3098,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <v>10060001</v>
+        <v>10080045</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>130</v>
@@ -3110,9 +3122,9 @@
         <v>131</v>
       </c>
       <c r="H59" s="1">
-        <v>6</v>
-      </c>
-      <c r="I59" s="3">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1">
         <v>1</v>
       </c>
       <c r="J59" s="1">
@@ -3124,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>10060002</v>
+        <v>10080046</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>132</v>
@@ -3136,7 +3148,7 @@
         <v>133</v>
       </c>
       <c r="H60" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -3150,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>10060003</v>
+        <v>10060001</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>134</v>
@@ -3164,7 +3176,7 @@
       <c r="H61" s="1">
         <v>6</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="3">
         <v>1</v>
       </c>
       <c r="J61" s="1">
@@ -3176,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>10060004</v>
+        <v>10060002</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>136</v>
@@ -3202,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>20010001</v>
+        <v>10060003</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>138</v>
@@ -3214,7 +3226,7 @@
         <v>139</v>
       </c>
       <c r="H63" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
@@ -3228,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>20010002</v>
+        <v>10060004</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>140</v>
@@ -3240,7 +3252,7 @@
         <v>141</v>
       </c>
       <c r="H64" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -3254,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>20010003</v>
+        <v>20010001</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
@@ -3280,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>20010004</v>
+        <v>20010002</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>144</v>
@@ -3306,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>20010005</v>
+        <v>20010003</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3334,10 +3346,8 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>20010006</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+        <v>20010004</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>148</v>
       </c>
@@ -3353,7 +3363,7 @@
       <c r="I68" s="1">
         <v>1</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3362,8 +3372,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>20010007</v>
-      </c>
+        <v>20010005</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
         <v>150</v>
       </c>
@@ -3388,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>20020001</v>
+        <v>20010006</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>152</v>
@@ -3400,12 +3412,12 @@
         <v>153</v>
       </c>
       <c r="H70" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I70" s="1">
         <v>1</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3414,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>20020002</v>
+        <v>20010007</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>154</v>
@@ -3426,7 +3438,7 @@
         <v>155</v>
       </c>
       <c r="H71" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
@@ -3440,10 +3452,8 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>20020003</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+        <v>20020001</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>156</v>
       </c>
@@ -3468,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>20020004</v>
+        <v>20020002</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>158</v>
@@ -3494,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>20030001</v>
+        <v>20020003</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>160</v>
@@ -3506,7 +3516,7 @@
         <v>161</v>
       </c>
       <c r="H74" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I74" s="1">
         <v>1</v>
@@ -3520,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>20030002</v>
+        <v>20020004</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>162</v>
@@ -3532,7 +3542,7 @@
         <v>163</v>
       </c>
       <c r="H75" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -3546,10 +3556,8 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76"/>
+        <v>20030001</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>164</v>
       </c>
@@ -3560,9 +3568,9 @@
         <v>165</v>
       </c>
       <c r="H76" s="1">
-        <v>13</v>
-      </c>
-      <c r="I76" s="3">
+        <v>12</v>
+      </c>
+      <c r="I76" s="1">
         <v>1</v>
       </c>
       <c r="J76" s="1">
@@ -3574,10 +3582,8 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>30010002</v>
-      </c>
-      <c r="C77"/>
-      <c r="D77"/>
+        <v>20030002</v>
+      </c>
       <c r="E77" s="1" t="s">
         <v>166</v>
       </c>
@@ -3588,7 +3594,7 @@
         <v>167</v>
       </c>
       <c r="H77" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -3602,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>30010003</v>
+        <v>30010001</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -3618,7 +3624,7 @@
       <c r="H78" s="1">
         <v>13</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="3">
         <v>1</v>
       </c>
       <c r="J78" s="1">
@@ -3630,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>30010004</v>
+        <v>30010002</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
@@ -3658,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>30010005</v>
+        <v>30010003</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -3686,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>30010006</v>
+        <v>30010004</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -3714,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>30010007</v>
+        <v>30010005</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -3742,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>30010008</v>
+        <v>30010006</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -3770,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>30010009</v>
+        <v>30010007</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -3798,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>30010010</v>
+        <v>30010008</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -3826,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>30010011</v>
+        <v>30010009</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -3854,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>30010012</v>
+        <v>30010010</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -3882,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>30010013</v>
+        <v>30010011</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -3910,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>30010014</v>
+        <v>30010012</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -3938,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>30010015</v>
+        <v>30010013</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -3958,6 +3964,62 @@
         <v>1</v>
       </c>
       <c r="J90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H91" s="1">
+        <v>13</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="1">
+        <v>13</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <t>图片</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>Item/new/6/1/flower</t>
+  </si>
+  <si>
+    <t>Item\new\7\1</t>
+  </si>
+  <si>
+    <t>Item\new\7\pre\hua</t>
   </si>
   <si>
     <t>UI/ItemTool/WeddingToolImg/WP/gantry/1</t>
@@ -625,9 +631,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -647,6 +653,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -654,7 +676,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,21 +709,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,24 +735,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,31 +751,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,6 +765,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -792,25 +798,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,25 +918,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,49 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,67 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,74 +989,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1083,6 +1021,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1091,145 +1097,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1565,10 +1571,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3162,21 +3168,18 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>10060001</v>
+        <v>10080047</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G61" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H61" s="1">
-        <v>6</v>
-      </c>
-      <c r="I61" s="3">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1">
         <v>1</v>
       </c>
       <c r="J61" s="1">
@@ -3188,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>10060002</v>
+        <v>10060001</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>136</v>
@@ -3202,7 +3205,7 @@
       <c r="H62" s="1">
         <v>6</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="3">
         <v>1</v>
       </c>
       <c r="J62" s="1">
@@ -3214,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>10060003</v>
+        <v>10060002</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>138</v>
@@ -3240,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>10060004</v>
+        <v>10060003</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>140</v>
@@ -3266,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>20010001</v>
+        <v>10060004</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
@@ -3278,7 +3281,7 @@
         <v>143</v>
       </c>
       <c r="H65" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -3292,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>20010002</v>
+        <v>20010001</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>144</v>
@@ -3318,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>20010003</v>
+        <v>20010002</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3346,8 +3349,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>20010004</v>
-      </c>
+        <v>20010003</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
         <v>148</v>
       </c>
@@ -3372,10 +3377,8 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>20010005</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+        <v>20010004</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>150</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>20010006</v>
+        <v>20010005</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>152</v>
@@ -3417,7 +3420,7 @@
       <c r="I70" s="1">
         <v>1</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3426,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>20010007</v>
+        <v>20010006</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>154</v>
@@ -3443,7 +3446,7 @@
       <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3452,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>20020001</v>
+        <v>20010007</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>156</v>
@@ -3464,7 +3467,7 @@
         <v>157</v>
       </c>
       <c r="H72" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
@@ -3478,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>20020002</v>
+        <v>20020001</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>158</v>
@@ -3504,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>20020003</v>
+        <v>20020002</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>160</v>
@@ -3530,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>20020004</v>
+        <v>20020003</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>162</v>
@@ -3556,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>20030001</v>
+        <v>20020004</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>164</v>
@@ -3568,7 +3571,7 @@
         <v>165</v>
       </c>
       <c r="H76" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I76" s="1">
         <v>1</v>
@@ -3582,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>20030002</v>
+        <v>20030001</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>166</v>
@@ -3608,10 +3611,8 @@
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="C78"/>
-      <c r="D78"/>
+        <v>20030002</v>
+      </c>
       <c r="E78" s="1" t="s">
         <v>168</v>
       </c>
@@ -3622,9 +3623,9 @@
         <v>169</v>
       </c>
       <c r="H78" s="1">
-        <v>13</v>
-      </c>
-      <c r="I78" s="3">
+        <v>12</v>
+      </c>
+      <c r="I78" s="1">
         <v>1</v>
       </c>
       <c r="J78" s="1">
@@ -3636,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>30010002</v>
+        <v>30010001</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
@@ -3652,7 +3653,7 @@
       <c r="H79" s="1">
         <v>13</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="3">
         <v>1</v>
       </c>
       <c r="J79" s="1">
@@ -3664,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>30010003</v>
+        <v>30010002</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -3692,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>30010004</v>
+        <v>30010003</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -3720,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>30010005</v>
+        <v>30010004</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -3748,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>30010006</v>
+        <v>30010005</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -3776,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>30010007</v>
+        <v>30010006</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -3804,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>30010008</v>
+        <v>30010007</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -3832,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>30010009</v>
+        <v>30010008</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -3860,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>30010010</v>
+        <v>30010009</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -3888,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>30010011</v>
+        <v>30010010</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -3916,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>30010012</v>
+        <v>30010011</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -3944,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>30010013</v>
+        <v>30010012</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -3972,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>30010014</v>
+        <v>30010013</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -4000,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>30010015</v>
+        <v>30010014</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -4020,6 +4021,34 @@
         <v>1</v>
       </c>
       <c r="J92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H93" s="1">
+        <v>13</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t>图片</t>
   </si>
@@ -140,6 +140,54 @@
     <t>Item/new/2/pre/7</t>
   </si>
   <si>
+    <t>Item/new/6/3/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/3/pre</t>
+  </si>
+  <si>
+    <t>Item/new/6/5/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/5/pre</t>
+  </si>
+  <si>
+    <t>Item/new/6/6/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/6/pre</t>
+  </si>
+  <si>
+    <t>Item/new/6/7/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/7/pre</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/gantry/1</t>
+  </si>
+  <si>
+    <t>Item/Gantry/Gantry</t>
+  </si>
+  <si>
+    <t>UI/ItemTool/WeddingToolImg/WP/gantry/2</t>
+  </si>
+  <si>
+    <t>Item/Gantry/Gantry1</t>
+  </si>
+  <si>
+    <t>Item/20180207/img/4</t>
+  </si>
+  <si>
+    <t>Item/20180207/jiazi</t>
+  </si>
+  <si>
+    <t>Item/20180207/img/5</t>
+  </si>
+  <si>
+    <t>Item/20180207/jiazi2</t>
+  </si>
+  <si>
     <t>Item/new/Panel/img/1</t>
   </si>
   <si>
@@ -434,28 +482,10 @@
     <t>Item\new\7\pre\hua</t>
   </si>
   <si>
-    <t>UI/ItemTool/WeddingToolImg/WP/gantry/1</t>
-  </si>
-  <si>
-    <t>Item/Gantry/Gantry</t>
-  </si>
-  <si>
-    <t>UI/ItemTool/WeddingToolImg/WP/gantry/2</t>
-  </si>
-  <si>
-    <t>Item/Gantry/Gantry1</t>
-  </si>
-  <si>
-    <t>Item/20180207/img/4</t>
-  </si>
-  <si>
-    <t>Item/20180207/jiazi</t>
-  </si>
-  <si>
-    <t>Item/20180207/img/5</t>
-  </si>
-  <si>
-    <t>Item/20180207/jiazi2</t>
+    <t>Item/new/6/4/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/4/pre</t>
   </si>
   <si>
     <t>Item/new/tx/img/light/1</t>
@@ -631,10 +661,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -653,15 +683,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,29 +729,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,22 +737,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,26 +759,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,16 +789,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,7 +828,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,31 +960,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,37 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,84 +1012,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -992,17 +1022,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,40 +1086,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,15 +1114,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1097,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,133 +1139,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1571,10 +1601,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1918,19 +1948,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>10070001</v>
+        <v>10050006</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1944,21 +1974,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>10070002</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
+        <v>10050007</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1972,25 +2000,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>10080001</v>
+        <v>10050008</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1998,24 +2026,24 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>10080002</v>
+        <v>10050009</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="1">
-        <v>8</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2024,25 +2052,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>10080003</v>
+        <v>10060001</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="1">
-        <v>8</v>
-      </c>
-      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2050,25 +2078,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>10080004</v>
+        <v>10060002</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2076,25 +2104,25 @@
         <v>1</v>
       </c>
       <c r="B19" s="1">
-        <v>10080005</v>
+        <v>10060003</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H19" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2102,25 +2130,25 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>10080006</v>
+        <v>10060004</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H20" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="3">
-        <v>2</v>
+      <c r="J20" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2128,21 +2156,21 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>10080007</v>
+        <v>10070001</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="1">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="1">
@@ -2154,19 +2182,21 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>10080008</v>
-      </c>
+        <v>10070002</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="E22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2180,13 +2210,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>10080009</v>
+        <v>10080001</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>59</v>
@@ -2194,11 +2224,11 @@
       <c r="H23" s="1">
         <v>8</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2206,13 +2236,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <v>10080010</v>
+        <v>10080002</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>61</v>
@@ -2220,11 +2250,11 @@
       <c r="H24" s="1">
         <v>8</v>
       </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2232,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>10080011</v>
+        <v>10080003</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>63</v>
@@ -2250,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2258,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>10080012</v>
+        <v>10080004</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>64</v>
@@ -2272,11 +2302,11 @@
       <c r="H26" s="1">
         <v>8</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2284,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>10080013</v>
+        <v>10080005</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2298,11 +2328,11 @@
       <c r="H27" s="1">
         <v>8</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2310,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1">
-        <v>10080014</v>
+        <v>10080006</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>68</v>
@@ -2327,8 +2357,8 @@
       <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1">
-        <v>1</v>
+      <c r="J28" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2336,13 +2366,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>10080015</v>
+        <v>10080007</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>71</v>
@@ -2354,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2362,13 +2392,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="1">
-        <v>10080016</v>
+        <v>10080008</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>73</v>
@@ -2380,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2388,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>10080017</v>
+        <v>10080009</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>74</v>
@@ -2402,7 +2432,7 @@
       <c r="H31" s="1">
         <v>8</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="1">
@@ -2414,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>10080018</v>
+        <v>10080010</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>76</v>
@@ -2431,7 +2461,7 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2440,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>10080019</v>
+        <v>10080011</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>78</v>
@@ -2466,13 +2496,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="1">
-        <v>10080020</v>
+        <v>10080012</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>81</v>
@@ -2480,11 +2510,11 @@
       <c r="H34" s="1">
         <v>8</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2492,13 +2522,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="1">
-        <v>10080021</v>
+        <v>10080013</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>83</v>
@@ -2506,11 +2536,11 @@
       <c r="H35" s="1">
         <v>8</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <v>1</v>
       </c>
       <c r="J35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2518,13 +2548,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1">
-        <v>10080022</v>
+        <v>10080014</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>85</v>
@@ -2536,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2544,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="1">
-        <v>10080023</v>
+        <v>10080015</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>87</v>
@@ -2562,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2570,13 +2600,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="1">
-        <v>10080024</v>
+        <v>10080016</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>89</v>
@@ -2588,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2596,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1">
-        <v>10080025</v>
+        <v>10080017</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>90</v>
@@ -2622,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="1">
-        <v>10080026</v>
+        <v>10080018</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>92</v>
@@ -2639,7 +2669,7 @@
       <c r="I40" s="1">
         <v>1</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2648,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>10080027</v>
+        <v>10080019</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>94</v>
@@ -2674,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1">
-        <v>10080028</v>
+        <v>10080020</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>96</v>
@@ -2700,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="1">
-        <v>10080029</v>
+        <v>10080021</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>98</v>
@@ -2726,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="1">
-        <v>10080030</v>
+        <v>10080022</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>100</v>
@@ -2752,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="1">
-        <v>10080031</v>
+        <v>10080023</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>102</v>
@@ -2778,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="1">
-        <v>10080032</v>
+        <v>10080024</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>104</v>
@@ -2804,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="1">
-        <v>10080033</v>
+        <v>10080025</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>106</v>
@@ -2822,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2830,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="1">
-        <v>10080034</v>
+        <v>10080026</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>108</v>
@@ -2848,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2856,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="1">
-        <v>10080035</v>
+        <v>10080027</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>110</v>
@@ -2874,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2882,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="1">
-        <v>10080036</v>
+        <v>10080028</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>112</v>
@@ -2900,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2908,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="1">
-        <v>10080037</v>
+        <v>10080029</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>114</v>
@@ -2926,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2934,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="1">
-        <v>10080038</v>
+        <v>10080030</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>116</v>
@@ -2952,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2960,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="1">
-        <v>10080039</v>
+        <v>10080031</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>118</v>
@@ -2986,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="1">
-        <v>10080040</v>
+        <v>10080032</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>120</v>
@@ -3004,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3012,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="1">
-        <v>10080041</v>
+        <v>10080033</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>122</v>
@@ -3030,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3038,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>10080042</v>
+        <v>10080034</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>124</v>
@@ -3056,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3064,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="1">
-        <v>10080043</v>
+        <v>10080035</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>126</v>
@@ -3082,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3090,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="1">
-        <v>10080044</v>
+        <v>10080036</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>128</v>
@@ -3108,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3116,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <v>10080045</v>
+        <v>10080037</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>130</v>
@@ -3134,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3142,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>10080046</v>
+        <v>10080038</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>132</v>
@@ -3160,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3168,11 +3198,14 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>10080047</v>
+        <v>10080039</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="F61" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>135</v>
       </c>
@@ -3191,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>10060001</v>
+        <v>10080040</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>136</v>
@@ -3203,13 +3236,13 @@
         <v>137</v>
       </c>
       <c r="H62" s="1">
-        <v>6</v>
-      </c>
-      <c r="I62" s="3">
+        <v>8</v>
+      </c>
+      <c r="I62" s="1">
         <v>1</v>
       </c>
       <c r="J62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3217,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>10060002</v>
+        <v>10080041</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>138</v>
@@ -3229,13 +3262,13 @@
         <v>139</v>
       </c>
       <c r="H63" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
       </c>
       <c r="J63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3243,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>10060003</v>
+        <v>10080042</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>140</v>
@@ -3255,13 +3288,13 @@
         <v>141</v>
       </c>
       <c r="H64" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
       </c>
       <c r="J64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3269,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>10060004</v>
+        <v>10080043</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
@@ -3281,13 +3314,13 @@
         <v>143</v>
       </c>
       <c r="H65" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
       </c>
       <c r="J65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3295,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>20010001</v>
+        <v>10080044</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>144</v>
@@ -3307,13 +3340,13 @@
         <v>145</v>
       </c>
       <c r="H66" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I66" s="1">
         <v>1</v>
       </c>
       <c r="J66" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:10">
@@ -3321,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>20010002</v>
+        <v>10080045</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3335,7 +3368,7 @@
         <v>147</v>
       </c>
       <c r="H67" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
@@ -3349,10 +3382,8 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>20010003</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+        <v>10080046</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>148</v>
       </c>
@@ -3363,7 +3394,7 @@
         <v>149</v>
       </c>
       <c r="H68" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
@@ -3377,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>20010004</v>
+        <v>10080047</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>150</v>
@@ -3389,7 +3420,7 @@
         <v>151</v>
       </c>
       <c r="H69" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
@@ -3403,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>20010005</v>
+        <v>10080048</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>152</v>
@@ -3415,7 +3446,7 @@
         <v>153</v>
       </c>
       <c r="H70" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I70" s="1">
         <v>1</v>
@@ -3429,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>20010006</v>
+        <v>20010001</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>154</v>
@@ -3446,7 +3477,7 @@
       <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3455,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>20010007</v>
+        <v>20010002</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>156</v>
@@ -3481,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>20020001</v>
+        <v>20010003</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>158</v>
@@ -3493,7 +3524,7 @@
         <v>159</v>
       </c>
       <c r="H73" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -3507,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>20020002</v>
+        <v>20010004</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>160</v>
@@ -3519,7 +3550,7 @@
         <v>161</v>
       </c>
       <c r="H74" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I74" s="1">
         <v>1</v>
@@ -3533,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>20020003</v>
+        <v>20010005</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>162</v>
@@ -3545,7 +3576,7 @@
         <v>163</v>
       </c>
       <c r="H75" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -3559,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>20020004</v>
+        <v>20010006</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>164</v>
@@ -3571,12 +3602,12 @@
         <v>165</v>
       </c>
       <c r="H76" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I76" s="1">
         <v>1</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3585,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>20030001</v>
+        <v>20010007</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>166</v>
@@ -3597,7 +3628,7 @@
         <v>167</v>
       </c>
       <c r="H77" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -3611,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>20030002</v>
+        <v>20020001</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>168</v>
@@ -3623,7 +3654,7 @@
         <v>169</v>
       </c>
       <c r="H78" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I78" s="1">
         <v>1</v>
@@ -3637,10 +3668,8 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="C79"/>
-      <c r="D79"/>
+        <v>20020002</v>
+      </c>
       <c r="E79" s="1" t="s">
         <v>170</v>
       </c>
@@ -3651,9 +3680,9 @@
         <v>171</v>
       </c>
       <c r="H79" s="1">
-        <v>13</v>
-      </c>
-      <c r="I79" s="3">
+        <v>11</v>
+      </c>
+      <c r="I79" s="1">
         <v>1</v>
       </c>
       <c r="J79" s="1">
@@ -3665,10 +3694,8 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>30010002</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80"/>
+        <v>20020003</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>172</v>
       </c>
@@ -3679,7 +3706,7 @@
         <v>173</v>
       </c>
       <c r="H80" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I80" s="1">
         <v>1</v>
@@ -3693,10 +3720,8 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>30010003</v>
-      </c>
-      <c r="C81"/>
-      <c r="D81"/>
+        <v>20020004</v>
+      </c>
       <c r="E81" s="1" t="s">
         <v>174</v>
       </c>
@@ -3707,7 +3732,7 @@
         <v>175</v>
       </c>
       <c r="H81" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I81" s="1">
         <v>1</v>
@@ -3721,10 +3746,8 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>30010004</v>
-      </c>
-      <c r="C82"/>
-      <c r="D82"/>
+        <v>20030001</v>
+      </c>
       <c r="E82" s="1" t="s">
         <v>176</v>
       </c>
@@ -3735,7 +3758,7 @@
         <v>177</v>
       </c>
       <c r="H82" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" s="1">
         <v>1</v>
@@ -3749,10 +3772,8 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>30010005</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83"/>
+        <v>20030002</v>
+      </c>
       <c r="E83" s="1" t="s">
         <v>178</v>
       </c>
@@ -3763,7 +3784,7 @@
         <v>179</v>
       </c>
       <c r="H83" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
@@ -3777,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>30010006</v>
+        <v>30010001</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -3793,7 +3814,7 @@
       <c r="H84" s="1">
         <v>13</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="3">
         <v>1</v>
       </c>
       <c r="J84" s="1">
@@ -3805,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>30010007</v>
+        <v>30010002</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -3833,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>30010008</v>
+        <v>30010003</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -3861,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>30010009</v>
+        <v>30010004</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -3889,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>30010010</v>
+        <v>30010005</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -3917,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>30010011</v>
+        <v>30010006</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -3945,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>30010012</v>
+        <v>30010007</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -3973,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>30010013</v>
+        <v>30010008</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -4001,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>30010014</v>
+        <v>30010009</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -4029,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>30010015</v>
+        <v>30010010</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -4052,9 +4073,149 @@
         <v>3</v>
       </c>
     </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1">
+        <v>30010011</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H94" s="1">
+        <v>13</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>30010012</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" s="1">
+        <v>13</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>30010013</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" s="1">
+        <v>13</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H97" s="1">
+        <v>13</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H98" s="1">
+        <v>13</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:K75">
-    <sortCondition ref="H2:H75"/>
+  <sortState ref="A2:K98">
+    <sortCondition ref="H2:H98"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
   <si>
     <t>图片</t>
   </si>
@@ -488,6 +488,24 @@
     <t>Item/new/6/4/pre</t>
   </si>
   <si>
+    <t>Item/new/6/9/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/9/pre</t>
+  </si>
+  <si>
+    <t>Item/new/6/10/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/10/pre</t>
+  </si>
+  <si>
+    <t>Item/new/6/11/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/11/pre</t>
+  </si>
+  <si>
     <t>Item/new/tx/img/light/1</t>
   </si>
   <si>
@@ -528,6 +546,12 @@
   </si>
   <si>
     <t>Item/new/tx/Light/TubeLight</t>
+  </si>
+  <si>
+    <t>Item/new/6/8/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/8/pre</t>
   </si>
   <si>
     <t>Item/new/tx/img/fenwei/1</t>
@@ -662,9 +686,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -676,68 +700,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,31 +721,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,6 +752,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -798,14 +799,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,6 +830,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,7 +852,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +912,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,31 +948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,37 +984,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,67 +1032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,16 +1049,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1055,17 +1081,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,27 +1121,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,8 +1138,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,145 +1151,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1601,10 +1625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3356,8 +3380,6 @@
       <c r="B67" s="1">
         <v>10080045</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
         <v>146</v>
       </c>
@@ -3460,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>20010001</v>
+        <v>10080049</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>154</v>
@@ -3472,9 +3494,9 @@
         <v>155</v>
       </c>
       <c r="H71" s="1">
-        <v>10</v>
-      </c>
-      <c r="I71" s="1">
+        <v>8</v>
+      </c>
+      <c r="I71" s="3">
         <v>1</v>
       </c>
       <c r="J71" s="1">
@@ -3486,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>20010002</v>
+        <v>10080050</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>156</v>
@@ -3498,7 +3520,7 @@
         <v>157</v>
       </c>
       <c r="H72" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
@@ -3512,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>20010003</v>
+        <v>10080051</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>158</v>
@@ -3524,7 +3546,7 @@
         <v>159</v>
       </c>
       <c r="H73" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -3538,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>20010004</v>
+        <v>20010001</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>160</v>
@@ -3564,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>20010005</v>
+        <v>20010002</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>162</v>
@@ -3590,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>20010006</v>
+        <v>20010003</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>164</v>
@@ -3607,7 +3629,7 @@
       <c r="I76" s="1">
         <v>1</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3616,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>20010007</v>
+        <v>20010004</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>166</v>
@@ -3642,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>20020001</v>
+        <v>20010005</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>168</v>
@@ -3654,7 +3676,7 @@
         <v>169</v>
       </c>
       <c r="H78" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I78" s="1">
         <v>1</v>
@@ -3668,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>20020002</v>
+        <v>20010006</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>170</v>
@@ -3680,12 +3702,12 @@
         <v>171</v>
       </c>
       <c r="H79" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3694,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>20020003</v>
+        <v>20010007</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>172</v>
@@ -3706,7 +3728,7 @@
         <v>173</v>
       </c>
       <c r="H80" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I80" s="1">
         <v>1</v>
@@ -3720,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>20020004</v>
+        <v>20010008</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>174</v>
@@ -3732,7 +3754,7 @@
         <v>175</v>
       </c>
       <c r="H81" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I81" s="1">
         <v>1</v>
@@ -3746,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>20030001</v>
+        <v>20020001</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>176</v>
@@ -3758,7 +3780,7 @@
         <v>177</v>
       </c>
       <c r="H82" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I82" s="1">
         <v>1</v>
@@ -3772,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>20030002</v>
+        <v>20020002</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>178</v>
@@ -3784,7 +3806,7 @@
         <v>179</v>
       </c>
       <c r="H83" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
@@ -3798,10 +3820,8 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="C84"/>
-      <c r="D84"/>
+        <v>20020003</v>
+      </c>
       <c r="E84" s="1" t="s">
         <v>180</v>
       </c>
@@ -3812,9 +3832,9 @@
         <v>181</v>
       </c>
       <c r="H84" s="1">
-        <v>13</v>
-      </c>
-      <c r="I84" s="3">
+        <v>11</v>
+      </c>
+      <c r="I84" s="1">
         <v>1</v>
       </c>
       <c r="J84" s="1">
@@ -3826,10 +3846,8 @@
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>30010002</v>
-      </c>
-      <c r="C85"/>
-      <c r="D85"/>
+        <v>20020004</v>
+      </c>
       <c r="E85" s="1" t="s">
         <v>182</v>
       </c>
@@ -3840,7 +3858,7 @@
         <v>183</v>
       </c>
       <c r="H85" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I85" s="1">
         <v>1</v>
@@ -3854,10 +3872,8 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>30010003</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86"/>
+        <v>20030001</v>
+      </c>
       <c r="E86" s="1" t="s">
         <v>184</v>
       </c>
@@ -3868,7 +3884,7 @@
         <v>185</v>
       </c>
       <c r="H86" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I86" s="1">
         <v>1</v>
@@ -3882,10 +3898,8 @@
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>30010004</v>
-      </c>
-      <c r="C87"/>
-      <c r="D87"/>
+        <v>20030002</v>
+      </c>
       <c r="E87" s="1" t="s">
         <v>186</v>
       </c>
@@ -3896,7 +3910,7 @@
         <v>187</v>
       </c>
       <c r="H87" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I87" s="1">
         <v>1</v>
@@ -3910,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>30010005</v>
+        <v>30010001</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -3926,7 +3940,7 @@
       <c r="H88" s="1">
         <v>13</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="3">
         <v>1</v>
       </c>
       <c r="J88" s="1">
@@ -3938,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>30010006</v>
+        <v>30010002</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -3966,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>30010007</v>
+        <v>30010003</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -3994,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>30010008</v>
+        <v>30010004</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -4022,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>30010009</v>
+        <v>30010005</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -4050,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>30010010</v>
+        <v>30010006</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -4078,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="1">
-        <v>30010011</v>
+        <v>30010007</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
@@ -4106,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="1">
-        <v>30010012</v>
+        <v>30010008</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
@@ -4134,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="1">
-        <v>30010013</v>
+        <v>30010009</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -4162,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>30010014</v>
+        <v>30010010</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
@@ -4190,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="1">
-        <v>30010015</v>
+        <v>30010011</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -4213,9 +4227,121 @@
         <v>3</v>
       </c>
     </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>30010012</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="1">
+        <v>13</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>30010013</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H100" s="1">
+        <v>13</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H101" s="1">
+        <v>13</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H102" s="1">
+        <v>13</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:K98">
-    <sortCondition ref="H2:H98"/>
+  <sortState ref="A2:K102">
+    <sortCondition ref="H2:H102"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\造物空间\IWedding\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="283">
   <si>
     <t>图片</t>
   </si>
@@ -59,6 +64,9 @@
     <t>价格</t>
   </si>
   <si>
+    <t>欧式吊灯</t>
+  </si>
+  <si>
     <t>Item/new/1/img/7</t>
   </si>
   <si>
@@ -68,6 +76,9 @@
     <t>Item/new/1/pre/7</t>
   </si>
   <si>
+    <t>红色花簇</t>
+  </si>
+  <si>
     <t>Item/new/1/img/3</t>
   </si>
   <si>
@@ -77,6 +88,9 @@
     <t>Item/new/1/pre/3</t>
   </si>
   <si>
+    <t>白色水仙花</t>
+  </si>
+  <si>
     <t>Item/new/2/img/1</t>
   </si>
   <si>
@@ -89,18 +103,27 @@
     <t>Item/new/2/pre/2</t>
   </si>
   <si>
+    <t>蓝色花簇</t>
+  </si>
+  <si>
     <t>Item/new/3/img/6</t>
   </si>
   <si>
     <t>Item/new/3/pre/6</t>
   </si>
   <si>
+    <t>橘黄色花簇</t>
+  </si>
+  <si>
     <t>Item/new/4/img/9</t>
   </si>
   <si>
     <t>Item/new/4/pre/9</t>
   </si>
   <si>
+    <t>西式餐桌</t>
+  </si>
+  <si>
     <t>Item/new/Table/img/1</t>
   </si>
   <si>
@@ -110,6 +133,9 @@
     <t>Item/new/Table/Table3</t>
   </si>
   <si>
+    <t>酒席桌</t>
+  </si>
+  <si>
     <t>Item/new/Table/img/2</t>
   </si>
   <si>
@@ -125,12 +151,18 @@
     <t>Item/new/Table/Table6</t>
   </si>
   <si>
+    <t>办公桌1</t>
+  </si>
+  <si>
     <t>Item/new/Table/img/4</t>
   </si>
   <si>
     <t>Item/new/Table/Table7</t>
   </si>
   <si>
+    <t>椅子模型</t>
+  </si>
+  <si>
     <t>Item/new/2/img/7</t>
   </si>
   <si>
@@ -140,6 +172,9 @@
     <t>Item/new/2/pre/7</t>
   </si>
   <si>
+    <t>围桌模型</t>
+  </si>
+  <si>
     <t>Item/new/6/3/1</t>
   </si>
   <si>
@@ -164,30 +199,45 @@
     <t>Item/new/6/7/pre</t>
   </si>
   <si>
+    <t>花布帘</t>
+  </si>
+  <si>
     <t>UI/ItemTool/WeddingToolImg/WP/gantry/1</t>
   </si>
   <si>
     <t>Item/Gantry/Gantry</t>
   </si>
   <si>
+    <t>龙门架</t>
+  </si>
+  <si>
     <t>UI/ItemTool/WeddingToolImg/WP/gantry/2</t>
   </si>
   <si>
     <t>Item/Gantry/Gantry1</t>
   </si>
   <si>
+    <t>拱形模型</t>
+  </si>
+  <si>
     <t>Item/20180207/img/4</t>
   </si>
   <si>
     <t>Item/20180207/jiazi</t>
   </si>
   <si>
+    <t>花架</t>
+  </si>
+  <si>
     <t>Item/20180207/img/5</t>
   </si>
   <si>
     <t>Item/20180207/jiazi2</t>
   </si>
   <si>
+    <t>kt板</t>
+  </si>
+  <si>
     <t>Item/new/Panel/img/1</t>
   </si>
   <si>
@@ -197,7 +247,7 @@
     <t>Item/new/Panel/img/2</t>
   </si>
   <si>
-    <t>Item/new/Panel/KTPanel/Frame1</t>
+    <t>白色围栏</t>
   </si>
   <si>
     <t>Item/new/1/img/1</t>
@@ -206,18 +256,27 @@
     <t>Item/new/1/pre/1</t>
   </si>
   <si>
+    <t>白色挂帘</t>
+  </si>
+  <si>
     <t>Item/new/1/img/2</t>
   </si>
   <si>
     <t>Item/new/1/pre/2</t>
   </si>
   <si>
+    <t>白色把手</t>
+  </si>
+  <si>
     <t>Item/new/1/img/4</t>
   </si>
   <si>
     <t>Item/new/1/pre/4</t>
   </si>
   <si>
+    <t>白色欧式建筑</t>
+  </si>
+  <si>
     <t>Item/new/1/img/5</t>
   </si>
   <si>
@@ -230,42 +289,63 @@
     <t>Item/new/1/pre/6</t>
   </si>
   <si>
+    <t>白色短柱子</t>
+  </si>
+  <si>
     <t>Item/new/1/img/8</t>
   </si>
   <si>
     <t>Item/new/1/pre/8</t>
   </si>
   <si>
+    <t>锥形装饰</t>
+  </si>
+  <si>
     <t>Item/new/2/img/3</t>
   </si>
   <si>
     <t>Item/new/2/pre/3</t>
   </si>
   <si>
+    <t>长方体装饰</t>
+  </si>
+  <si>
     <t>Item/new/2/img/4</t>
   </si>
   <si>
     <t>Item/new/2/pre/4</t>
   </si>
   <si>
+    <t>彩带装饰</t>
+  </si>
+  <si>
     <t>Item/new/2/img/5</t>
   </si>
   <si>
     <t>Item/new/2/pre/5</t>
   </si>
   <si>
+    <t>英文装饰</t>
+  </si>
+  <si>
     <t>Item/new/2/img/6</t>
   </si>
   <si>
     <t>Item/new/2/pre/6</t>
   </si>
   <si>
+    <t>墙面装饰</t>
+  </si>
+  <si>
     <t>Item/new/2/img/8</t>
   </si>
   <si>
     <t>Item/new/2/pre/8</t>
   </si>
   <si>
+    <t>欧式烛台</t>
+  </si>
+  <si>
     <t>Item/new/3/img/1</t>
   </si>
   <si>
@@ -278,18 +358,27 @@
     <t>Item/new/3/pre/2</t>
   </si>
   <si>
+    <t>蓝色花架</t>
+  </si>
+  <si>
     <t>Item/new/3/img/3</t>
   </si>
   <si>
     <t>Item/new/3/pre/3</t>
   </si>
   <si>
+    <t>圆环模型</t>
+  </si>
+  <si>
     <t>Item/new/3/img/4</t>
   </si>
   <si>
     <t>Item/new/3/pre/4</t>
   </si>
   <si>
+    <t>铁架造型</t>
+  </si>
+  <si>
     <t>Item/new/3/img/5</t>
   </si>
   <si>
@@ -302,6 +391,9 @@
     <t>Item/new/4/pre/1</t>
   </si>
   <si>
+    <t>铁架网格造型</t>
+  </si>
+  <si>
     <t>Item/new/4/img/2</t>
   </si>
   <si>
@@ -314,6 +406,9 @@
     <t>Item/new/4/pre/3</t>
   </si>
   <si>
+    <t>铁架花纹造型</t>
+  </si>
+  <si>
     <t>Item/new/4/img/4</t>
   </si>
   <si>
@@ -326,48 +421,72 @@
     <t>Item/new/4/pre/5</t>
   </si>
   <si>
+    <t>花鸟造型</t>
+  </si>
+  <si>
     <t>Item/new/4/img/6</t>
   </si>
   <si>
     <t>Item/new/4/pre/6</t>
   </si>
   <si>
+    <t>蜡烛模型</t>
+  </si>
+  <si>
     <t>Item/new/4/img/7</t>
   </si>
   <si>
     <t>Item/new/4/pre/7</t>
   </si>
   <si>
+    <t>草丛造型</t>
+  </si>
+  <si>
     <t>Item/new/4/img/8</t>
   </si>
   <si>
     <t>Item/new/4/pre/8</t>
   </si>
   <si>
+    <t>白色花簇</t>
+  </si>
+  <si>
     <t>Item/new/5/img/1</t>
   </si>
   <si>
     <t>Item/new/5/pre/1</t>
   </si>
   <si>
+    <t>三角模型</t>
+  </si>
+  <si>
     <t>Item/new/5/img/2</t>
   </si>
   <si>
     <t>Item/new/5/pre/2</t>
   </si>
   <si>
+    <t>蓝色窗帘</t>
+  </si>
+  <si>
     <t>Item/new/oldty/img/1</t>
   </si>
   <si>
     <t>Item/new/oldty/1</t>
   </si>
   <si>
+    <t>粉色窗帘</t>
+  </si>
+  <si>
     <t>Item/new/oldty/img/2</t>
   </si>
   <si>
     <t>Item/new/oldty/2</t>
   </si>
   <si>
+    <t>蛋糕模型</t>
+  </si>
+  <si>
     <t>Item/new/oldty/img/3</t>
   </si>
   <si>
@@ -380,6 +499,9 @@
     <t>Item/new/oldty/4</t>
   </si>
   <si>
+    <t>铁笼造型</t>
+  </si>
+  <si>
     <t>Item/new/oldty/img/5</t>
   </si>
   <si>
@@ -392,6 +514,9 @@
     <t>Item/new/oldty/6</t>
   </si>
   <si>
+    <t>装饰品</t>
+  </si>
+  <si>
     <t>UI/ItemTool/WeddingToolImg/WP/chinese/2</t>
   </si>
   <si>
@@ -422,66 +547,99 @@
     <t>Item/ChineseStage/17</t>
   </si>
   <si>
+    <t>中式吊灯</t>
+  </si>
+  <si>
     <t>UI/ItemTool/WeddingToolImg/WP/chinese/18</t>
   </si>
   <si>
     <t>Item/ChineseStage/18</t>
   </si>
   <si>
+    <t>花束</t>
+  </si>
+  <si>
     <t>Item/new/oldty/img/5-5</t>
   </si>
   <si>
     <t>Item/new/oldty/5/pre/flower</t>
   </si>
   <si>
+    <t>彩色花簇</t>
+  </si>
+  <si>
     <t>Item/senxi/img/2</t>
   </si>
   <si>
     <t>Item/senxi/flower</t>
   </si>
   <si>
+    <t>栅栏模型</t>
+  </si>
+  <si>
     <t>Item/senxi/img/3</t>
   </si>
   <si>
     <t>Item/senxi/languan</t>
   </si>
   <si>
+    <t>树枝模型</t>
+  </si>
+  <si>
     <t>Item/senxi/img/5</t>
   </si>
   <si>
     <t>Item/senxi/shuteng</t>
   </si>
   <si>
+    <t>绿色彩带</t>
+  </si>
+  <si>
     <t>Item/senxi/img/7</t>
   </si>
   <si>
     <t>Item/senxi/yezi1</t>
   </si>
   <si>
+    <t>树桩模型</t>
+  </si>
+  <si>
     <t>Item/senxi/img/4</t>
   </si>
   <si>
     <t>Item/senxi/muzhuang</t>
   </si>
   <si>
+    <t>树模型</t>
+  </si>
+  <si>
     <t>Item/new/6/2/1</t>
   </si>
   <si>
     <t>Item/new/6/2/tree</t>
   </si>
   <si>
+    <t>紫色花簇模型</t>
+  </si>
+  <si>
     <t>Item/new/6/1/1</t>
   </si>
   <si>
     <t>Item/new/6/1/flower</t>
   </si>
   <si>
+    <t>红色花簇模型</t>
+  </si>
+  <si>
     <t>Item\new\7\1</t>
   </si>
   <si>
     <t>Item\new\7\pre\hua</t>
   </si>
   <si>
+    <t>相册模型</t>
+  </si>
+  <si>
     <t>Item/new/6/4/1</t>
   </si>
   <si>
@@ -494,203 +652,280 @@
     <t>Item/new/6/9/pre</t>
   </si>
   <si>
+    <t>蜡烛架</t>
+  </si>
+  <si>
+    <t>Item/new/6/10/pre</t>
+  </si>
+  <si>
+    <t>Item/new/6/11/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/11/pre</t>
+  </si>
+  <si>
+    <t>旋转射灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/RadiationLamp</t>
+  </si>
+  <si>
+    <t>射灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/Spotlight</t>
+  </si>
+  <si>
+    <t>氛围灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/3</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/BallLamp</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/4</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/LaserSpotlight</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/5</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Light/PointLight</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/6</t>
+  </si>
+  <si>
+    <t>Item/new/tx/FlatLamp/FlatLamp</t>
+  </si>
+  <si>
+    <t>圆柱日光灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/7</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Light/TubeLight</t>
+  </si>
+  <si>
+    <t>Item/new/6/8/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/8/pre</t>
+  </si>
+  <si>
+    <t>气泡特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Bubble/Bubble</t>
+  </si>
+  <si>
+    <t>烟雾特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Smoke/Smoke</t>
+  </si>
+  <si>
+    <t>花瓣特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/3</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Sprinkle/Sprinkle</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/4</t>
+  </si>
+  <si>
+    <t>Item/new/tx/FlowerGroup/FlowerWall</t>
+  </si>
+  <si>
+    <t>男人模型</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/people/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Role/Man</t>
+  </si>
+  <si>
+    <t>女人模型</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/people/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Role/Girl</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/1</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door1</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/2</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door2</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/3</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door3</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/4</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door4</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/5</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door5</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/6</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door6</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/7</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door7</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/8</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door8</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/9</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door9</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/10</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door10</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/11</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door11</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/12</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door12</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/13</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door13</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/14</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door14</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/15</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door15</t>
+  </si>
+  <si>
+    <r>
+      <t>Item/new/Panel/Frame/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frame1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frame1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopImg/Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Item/new/6/10/1</t>
-  </si>
-  <si>
-    <t>Item/new/6/10/pre</t>
-  </si>
-  <si>
-    <t>Item/new/6/11/1</t>
-  </si>
-  <si>
-    <t>Item/new/6/11/pre</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/RadiationLamp</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/Spotlight</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/3</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/BallLamp</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/4</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/LaserSpotlight</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/5</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Light/PointLight</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/6</t>
-  </si>
-  <si>
-    <t>Item/new/tx/FlatLamp/FlatLamp</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/7</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Light/TubeLight</t>
-  </si>
-  <si>
-    <t>Item/new/6/8/1</t>
-  </si>
-  <si>
-    <t>Item/new/6/8/pre</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Bubble/Bubble</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Smoke/Smoke</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/3</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Sprinkle/Sprinkle</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/4</t>
-  </si>
-  <si>
-    <t>Item/new/tx/FlowerGroup/FlowerWall</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/people/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Role/Man</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/people/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Role/Girl</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/1</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door1</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/2</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door2</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/3</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door3</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/4</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door4</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/5</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door5</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/6</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door6</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/7</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door7</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/8</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door8</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/9</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door9</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/10</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door10</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/11</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door11</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/12</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door12</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/13</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door13</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/14</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door14</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/15</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Item/new/6/12/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WindBellLine</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,345 +934,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1045,255 +964,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1306,62 +983,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1619,19 +1255,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
@@ -1646,7 +1282,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,21 +1317,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>10010001</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1707,21 +1346,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10030001</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
@@ -1733,21 +1375,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>10030002</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -1759,21 +1404,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>10030003</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -1785,21 +1433,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>10030004</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1811,21 +1462,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>10030005</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -1837,21 +1491,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>10050001</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
@@ -1863,21 +1520,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>10050002</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -1889,21 +1549,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>10050003</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -1915,21 +1578,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>10050004</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -1941,21 +1607,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>10050005</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -1967,21 +1636,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>10050006</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1">
         <v>5</v>
@@ -1993,21 +1665,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>10050007</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1">
         <v>5</v>
@@ -2019,21 +1694,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>10050008</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1">
         <v>5</v>
@@ -2045,21 +1723,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>10050009</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1">
         <v>5</v>
@@ -2071,21 +1752,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>10060001</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1">
         <v>6</v>
@@ -2097,21 +1781,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>10060002</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H18" s="1">
         <v>6</v>
@@ -2123,21 +1810,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>10060003</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1">
         <v>6</v>
@@ -2149,21 +1839,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>10060004</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H20" s="1">
         <v>6</v>
@@ -2175,21 +1868,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>10070001</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1">
         <v>7</v>
@@ -2201,23 +1897,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>10070002</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
       <c r="D22"/>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="H22" s="1">
         <v>7</v>
@@ -2229,21 +1927,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>10080001</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H23" s="1">
         <v>8</v>
@@ -2255,21 +1956,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>10080002</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H24" s="1">
         <v>8</v>
@@ -2281,21 +1985,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>10080003</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H25" s="1">
         <v>8</v>
@@ -2307,21 +2014,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>10080004</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H26" s="1">
         <v>8</v>
@@ -2333,21 +2043,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1">
         <v>10080005</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H27" s="1">
         <v>8</v>
@@ -2359,21 +2072,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>10080006</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H28" s="1">
         <v>8</v>
@@ -2385,21 +2101,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>10080007</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H29" s="1">
         <v>8</v>
@@ -2411,21 +2130,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>10080008</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H30" s="1">
         <v>8</v>
@@ -2437,21 +2159,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>10080009</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H31" s="1">
         <v>8</v>
@@ -2463,21 +2188,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>10080010</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H32" s="1">
         <v>8</v>
@@ -2489,21 +2217,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>10080011</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="H33" s="1">
         <v>8</v>
@@ -2515,21 +2246,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>10080012</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="H34" s="1">
         <v>8</v>
@@ -2541,21 +2275,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>10080013</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="H35" s="1">
         <v>8</v>
@@ -2567,21 +2304,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>10080014</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H36" s="1">
         <v>8</v>
@@ -2593,21 +2333,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>10080015</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H37" s="1">
         <v>8</v>
@@ -2619,21 +2362,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>10080016</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="H38" s="1">
         <v>8</v>
@@ -2645,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2653,13 +2399,13 @@
         <v>10080017</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="H39" s="1">
         <v>8</v>
@@ -2671,21 +2417,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="1">
         <v>10080018</v>
       </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="H40" s="1">
         <v>8</v>
@@ -2697,21 +2446,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="1">
         <v>10080019</v>
       </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="H41" s="1">
         <v>8</v>
@@ -2723,21 +2475,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>10080020</v>
       </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H42" s="1">
         <v>8</v>
@@ -2749,21 +2504,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>10080021</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="H43" s="1">
         <v>8</v>
@@ -2775,21 +2533,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>10080022</v>
       </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="H44" s="1">
         <v>8</v>
@@ -2801,21 +2562,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>10080023</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="H45" s="1">
         <v>8</v>
@@ -2827,21 +2591,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>10080024</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="H46" s="1">
         <v>8</v>
@@ -2853,21 +2620,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>10080025</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="H47" s="1">
         <v>8</v>
@@ -2879,21 +2649,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>10080026</v>
       </c>
+      <c r="C48" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H48" s="1">
         <v>8</v>
@@ -2905,21 +2678,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>10080027</v>
       </c>
+      <c r="C49" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="H49" s="1">
         <v>8</v>
@@ -2931,21 +2707,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" s="1">
         <v>10080028</v>
       </c>
+      <c r="C50" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="H50" s="1">
         <v>8</v>
@@ -2957,21 +2736,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" s="1">
         <v>10080029</v>
       </c>
+      <c r="C51" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H51" s="1">
         <v>8</v>
@@ -2983,21 +2765,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="1">
         <v>10080030</v>
       </c>
+      <c r="C52" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="H52" s="1">
         <v>8</v>
@@ -3009,21 +2794,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1</v>
       </c>
       <c r="B53" s="1">
         <v>10080031</v>
       </c>
+      <c r="C53" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="H53" s="1">
         <v>8</v>
@@ -3035,21 +2823,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1</v>
       </c>
       <c r="B54" s="1">
         <v>10080032</v>
       </c>
+      <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="H54" s="1">
         <v>8</v>
@@ -3061,21 +2852,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1</v>
       </c>
       <c r="B55" s="1">
         <v>10080033</v>
       </c>
+      <c r="C55" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="H55" s="1">
         <v>8</v>
@@ -3087,21 +2881,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>10080034</v>
       </c>
+      <c r="C56" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="H56" s="1">
         <v>8</v>
@@ -3113,21 +2910,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" s="1">
         <v>10080035</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H57" s="1">
         <v>8</v>
@@ -3139,21 +2939,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>10080036</v>
       </c>
+      <c r="C58" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="H58" s="1">
         <v>8</v>
@@ -3165,21 +2968,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>10080037</v>
       </c>
+      <c r="C59" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="H59" s="1">
         <v>8</v>
@@ -3191,21 +2997,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1</v>
       </c>
       <c r="B60" s="1">
         <v>10080038</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="H60" s="1">
         <v>8</v>
@@ -3217,21 +3026,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1</v>
       </c>
       <c r="B61" s="1">
         <v>10080039</v>
       </c>
+      <c r="C61" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="H61" s="1">
         <v>8</v>
@@ -3243,21 +3055,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1</v>
       </c>
       <c r="B62" s="1">
         <v>10080040</v>
       </c>
+      <c r="C62" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="H62" s="1">
         <v>8</v>
@@ -3269,21 +3084,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1</v>
       </c>
       <c r="B63" s="1">
         <v>10080041</v>
       </c>
+      <c r="C63" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="H63" s="1">
         <v>8</v>
@@ -3295,21 +3113,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1</v>
       </c>
       <c r="B64" s="1">
         <v>10080042</v>
       </c>
+      <c r="C64" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="H64" s="1">
         <v>8</v>
@@ -3321,21 +3142,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" s="1">
         <v>10080043</v>
       </c>
+      <c r="C65" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="H65" s="1">
         <v>8</v>
@@ -3347,21 +3171,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1</v>
       </c>
       <c r="B66" s="1">
         <v>10080044</v>
       </c>
+      <c r="C66" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="H66" s="1">
         <v>8</v>
@@ -3373,21 +3200,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1</v>
       </c>
       <c r="B67" s="1">
         <v>10080045</v>
       </c>
+      <c r="C67" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="E67" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="H67" s="1">
         <v>8</v>
@@ -3399,21 +3229,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1</v>
       </c>
       <c r="B68" s="1">
         <v>10080046</v>
       </c>
+      <c r="C68" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="H68" s="1">
         <v>8</v>
@@ -3425,21 +3258,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1</v>
       </c>
       <c r="B69" s="1">
         <v>10080047</v>
       </c>
+      <c r="C69" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="H69" s="1">
         <v>8</v>
@@ -3451,21 +3287,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1</v>
       </c>
       <c r="B70" s="1">
         <v>10080048</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="H70" s="1">
         <v>8</v>
@@ -3477,21 +3316,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1</v>
       </c>
       <c r="B71" s="1">
         <v>10080049</v>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="H71" s="1">
         <v>8</v>
@@ -3503,21 +3345,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>1</v>
       </c>
       <c r="B72" s="1">
         <v>10080050</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>36</v>
+      <c r="C72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H72" s="1">
         <v>8</v>
@@ -3529,21 +3374,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>1</v>
       </c>
       <c r="B73" s="1">
         <v>10080051</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="H73" s="1">
         <v>8</v>
@@ -3555,47 +3403,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1</v>
       </c>
       <c r="B74" s="1">
+        <v>10080052</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H74" s="1">
+        <v>8</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1">
         <v>20010001</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H74" s="1">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1</v>
-      </c>
-      <c r="J74" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>1</v>
-      </c>
-      <c r="B75" s="1">
-        <v>20010002</v>
+      <c r="C75" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="H75" s="1">
         <v>10</v>
@@ -3607,21 +3461,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>20010003</v>
+        <v>20010002</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="H76" s="1">
         <v>10</v>
@@ -3633,21 +3490,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>20010004</v>
+        <v>20010003</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="H77" s="1">
         <v>10</v>
@@ -3659,21 +3519,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>20010005</v>
+        <v>20010004</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="H78" s="1">
         <v>10</v>
@@ -3685,21 +3548,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>20010006</v>
+        <v>20010005</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="H79" s="1">
         <v>10</v>
@@ -3707,25 +3570,25 @@
       <c r="I79" s="1">
         <v>1</v>
       </c>
-      <c r="J79" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="J79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>20010007</v>
+        <v>20010006</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="H80" s="1">
         <v>10</v>
@@ -3733,25 +3596,28 @@
       <c r="I80" s="1">
         <v>1</v>
       </c>
-      <c r="J80" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="J80" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>20010008</v>
+        <v>20010007</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="H81" s="1">
         <v>10</v>
@@ -3763,47 +3629,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1</v>
       </c>
       <c r="B82" s="1">
+        <v>20010008</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H82" s="1">
+        <v>10</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1">
         <v>20020001</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H82" s="1">
-        <v>11</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1</v>
-      </c>
-      <c r="J82" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>1</v>
-      </c>
-      <c r="B83" s="1">
-        <v>20020002</v>
+      <c r="C83" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="H83" s="1">
         <v>11</v>
@@ -3815,21 +3684,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>20020003</v>
+        <v>20020002</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="H84" s="1">
         <v>11</v>
@@ -3841,21 +3713,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>20020004</v>
+        <v>20020003</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="H85" s="1">
         <v>11</v>
@@ -3867,47 +3742,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>1</v>
       </c>
       <c r="B86" s="1">
+        <v>20020004</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H86" s="1">
+        <v>11</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1">
         <v>20030001</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H86" s="1">
-        <v>12</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1</v>
-      </c>
-      <c r="J86" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1">
-        <v>1</v>
-      </c>
-      <c r="B87" s="1">
-        <v>20030002</v>
+      <c r="C87" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="H87" s="1">
         <v>12</v>
@@ -3919,79 +3797,80 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1</v>
       </c>
       <c r="B88" s="1">
+        <v>20030002</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H88" s="1">
+        <v>12</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1">
         <v>30010001</v>
-      </c>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H88" s="1">
-        <v>13</v>
-      </c>
-      <c r="I88" s="3">
-        <v>1</v>
-      </c>
-      <c r="J88" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1">
-        <v>1</v>
-      </c>
-      <c r="B89" s="1">
-        <v>30010002</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89" s="1" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="H89" s="1">
         <v>13</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="3">
         <v>1</v>
       </c>
       <c r="J89" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>30010003</v>
+        <v>30010002</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90" s="1" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="H90" s="1">
         <v>13</v>
@@ -4003,23 +3882,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>30010004</v>
+        <v>30010003</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="1" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="H91" s="1">
         <v>13</v>
@@ -4031,23 +3910,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>30010005</v>
+        <v>30010004</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="H92" s="1">
         <v>13</v>
@@ -4059,23 +3938,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>30010006</v>
+        <v>30010005</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="1" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="H93" s="1">
         <v>13</v>
@@ -4087,23 +3966,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>1</v>
       </c>
       <c r="B94" s="1">
-        <v>30010007</v>
+        <v>30010006</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="1" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="H94" s="1">
         <v>13</v>
@@ -4115,23 +3994,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1</v>
       </c>
       <c r="B95" s="1">
-        <v>30010008</v>
+        <v>30010007</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95" s="1" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="H95" s="1">
         <v>13</v>
@@ -4143,23 +4022,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>1</v>
       </c>
       <c r="B96" s="1">
-        <v>30010009</v>
+        <v>30010008</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96" s="1" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="H96" s="1">
         <v>13</v>
@@ -4171,23 +4050,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>30010010</v>
+        <v>30010009</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97" s="1" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="H97" s="1">
         <v>13</v>
@@ -4199,23 +4078,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1</v>
       </c>
       <c r="B98" s="1">
-        <v>30010011</v>
+        <v>30010010</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="1" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="H98" s="1">
         <v>13</v>
@@ -4227,23 +4106,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1</v>
       </c>
       <c r="B99" s="1">
-        <v>30010012</v>
+        <v>30010011</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99" s="1" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="H99" s="1">
         <v>13</v>
@@ -4255,23 +4134,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>1</v>
       </c>
       <c r="B100" s="1">
-        <v>30010013</v>
+        <v>30010012</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100" s="1" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="H100" s="1">
         <v>13</v>
@@ -4283,23 +4162,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>1</v>
       </c>
       <c r="B101" s="1">
-        <v>30010014</v>
+        <v>30010013</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101" s="1" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="H101" s="1">
         <v>13</v>
@@ -4311,23 +4190,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1</v>
       </c>
       <c r="B102" s="1">
-        <v>30010015</v>
+        <v>30010014</v>
       </c>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102" s="1" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H102" s="1">
         <v>13</v>
@@ -4339,17 +4218,45 @@
         <v>3</v>
       </c>
     </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H103" s="1">
+        <v>13</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:K102">
-    <sortCondition ref="H2:H102"/>
+  <sortState ref="A2:K103">
+    <sortCondition ref="H2:H103"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"1.吊灯,2.舞台,3.花瓶,4.T台,5.酒桌,6.龙门架,7.台版,8.装饰,9.组合,10.灯光,11.氛围,12.人物"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\造物空间\IWedding\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$9</definedName>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="348">
   <si>
     <t>图片</t>
   </si>
@@ -1121,14 +1127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,345 +1137,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1483,251 +1159,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,61 +1182,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2060,19 +1450,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
@@ -2087,7 +1477,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +1512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2151,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2180,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2209,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2238,7 +1628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2267,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2296,7 +1686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2325,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2354,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2383,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2412,7 +1802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2441,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2470,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2499,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2528,7 +1918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2557,7 +1947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2586,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2615,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2644,7 +2034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2673,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2702,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2731,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2760,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2789,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2818,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2847,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2876,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2905,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -2934,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2963,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -2992,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -3021,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -3050,7 +2440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -3079,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -3108,7 +2498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -3137,7 +2527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -3166,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -3196,7 +2586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -3225,7 +2615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -3254,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -3283,7 +2673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -3312,7 +2702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -3341,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -3370,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -3399,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -3428,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -3457,7 +2847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -3486,7 +2876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -3515,7 +2905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -3544,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -3573,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -3602,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3631,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -3660,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3686,7 +3076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -3715,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -3744,7 +3134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -3773,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -3802,7 +3192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -3831,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -3860,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -3889,7 +3279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -3918,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -3947,7 +3337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -3976,7 +3366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -4005,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -4034,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -4063,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -4092,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -4121,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -4150,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -4179,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -4208,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -4237,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -4266,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -4295,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -4324,7 +3714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -4353,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -4382,7 +3772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -4411,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -4440,7 +3830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -4469,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -4498,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -4527,7 +3917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -4556,7 +3946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -4585,7 +3975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -4614,7 +4004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -4643,7 +4033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -4672,7 +4062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -4701,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -4730,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -4759,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -4788,7 +4178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -4817,7 +4207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -4846,7 +4236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -4875,7 +4265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -4904,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -4933,7 +4323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -4962,7 +4352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -4991,7 +4381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -5017,7 +4407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -5043,7 +4433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -5072,7 +4462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -5098,7 +4488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -5127,7 +4517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -5156,7 +4546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -5185,7 +4575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -5211,7 +4601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -5240,7 +4630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -5269,7 +4659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -5297,7 +4687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -5325,7 +4715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -5353,7 +4743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -5381,7 +4771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -5409,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -5437,7 +4827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -5465,7 +4855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -5493,7 +4883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -5521,7 +4911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -5549,7 +4939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -5577,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -5605,7 +4995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -5633,7 +5023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -5661,7 +5051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -5693,13 +5083,45 @@
   <sortState ref="A2:K127">
     <sortCondition ref="H2:H127"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"1.吊灯,2.舞台,3.花瓶,4.T台,5.酒桌,6.龙门架,7.台版,8.装饰,9.组合,10.灯光,11.氛围,12.人物"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\造物空间\IWedding\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新建文件夹\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$9</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="351">
   <si>
     <t>图片</t>
   </si>
@@ -47,19 +48,6 @@
   </si>
   <si>
     <t>道具类型</t>
-  </si>
-  <si>
-    <t>放置类型
-1、地面放置
-2、桌面放置
-3、贴墙放置
-4、贴顶放置</t>
-  </si>
-  <si>
-    <t>风格
-1、中式
-2、欧式
-3、</t>
   </si>
   <si>
     <t>价格</t>
@@ -917,211 +905,239 @@
     <t>心形花图</t>
   </si>
   <si>
+    <t>Item\new\6\23\心型花圈</t>
+  </si>
+  <si>
+    <t>旋转射灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/RadiationLamp</t>
+  </si>
+  <si>
+    <t>射灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/Spotlight</t>
+  </si>
+  <si>
+    <t>氛围灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/3</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/BallLamp</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/4</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/LaserSpotlight</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/5</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Light/PointLight</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/6</t>
+  </si>
+  <si>
+    <t>Item/new/tx/FlatLamp/FlatLamp</t>
+  </si>
+  <si>
+    <t>圆柱日光灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/7</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Light/TubeLight</t>
+  </si>
+  <si>
+    <t>Item/new/6/8/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/8/pre</t>
+  </si>
+  <si>
+    <t>气泡特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Bubble/Bubble</t>
+  </si>
+  <si>
+    <t>烟雾特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Smoke/Smoke</t>
+  </si>
+  <si>
+    <t>花瓣特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/3</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Sprinkle/Sprinkle</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/4</t>
+  </si>
+  <si>
+    <t>Item/new/tx/FlowerGroup/FlowerWall</t>
+  </si>
+  <si>
+    <t>男人模型</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/people/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Role/Man</t>
+  </si>
+  <si>
+    <t>女人模型</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/people/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Role/Girl</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/1</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door1</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/2</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door2</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/3</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door3</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/4</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door4</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/5</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door5</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/6</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door6</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/7</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door7</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/8</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door8</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/9</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door9</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/10</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door10</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/11</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door11</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/12</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door12</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/13</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door13</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/14</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door14</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/15</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door15</t>
+  </si>
+  <si>
     <t>Item\new\6\img\20</t>
-  </si>
-  <si>
-    <t>Item\new\6\23\心型花圈</t>
-  </si>
-  <si>
-    <t>旋转射灯</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/RadiationLamp</t>
-  </si>
-  <si>
-    <t>射灯</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/Spotlight</t>
-  </si>
-  <si>
-    <t>氛围灯</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/3</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/BallLamp</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/4</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/LaserSpotlight</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/5</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Light/PointLight</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/6</t>
-  </si>
-  <si>
-    <t>Item/new/tx/FlatLamp/FlatLamp</t>
-  </si>
-  <si>
-    <t>圆柱日光灯</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/7</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Light/TubeLight</t>
-  </si>
-  <si>
-    <t>Item/new/6/8/1</t>
-  </si>
-  <si>
-    <t>Item/new/6/8/pre</t>
-  </si>
-  <si>
-    <t>气泡特效</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Bubble/Bubble</t>
-  </si>
-  <si>
-    <t>烟雾特效</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Smoke/Smoke</t>
-  </si>
-  <si>
-    <t>花瓣特效</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/3</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Sprinkle/Sprinkle</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/4</t>
-  </si>
-  <si>
-    <t>Item/new/tx/FlowerGroup/FlowerWall</t>
-  </si>
-  <si>
-    <t>男人模型</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/people/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Role/Man</t>
-  </si>
-  <si>
-    <t>女人模型</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/people/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Role/Girl</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/1</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door1</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/2</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door2</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/3</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door3</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/4</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door4</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/5</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door5</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/6</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door6</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/7</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door7</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/8</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door8</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/9</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door9</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/10</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door10</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/11</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door11</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/12</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door12</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/13</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door13</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/14</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door14</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/15</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹顶鹤模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\24\丹顶鹤模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格
+1、中式
+2、欧式
+3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置类型
+1、地面放置
+2、桌面放置
+3、贴墙放置
+4、贴顶放置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\24\缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1458,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1503,13 +1519,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>349</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1520,16 +1536,16 @@
         <v>10010001</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1549,16 +1565,16 @@
         <v>10030001</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
@@ -1578,16 +1594,16 @@
         <v>10030002</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -1607,16 +1623,16 @@
         <v>10030003</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -1636,16 +1652,16 @@
         <v>10030004</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1665,16 +1681,16 @@
         <v>10030005</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -1694,16 +1710,16 @@
         <v>10030006</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -1723,16 +1739,16 @@
         <v>10030007</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
@@ -1752,16 +1768,16 @@
         <v>10030008</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -1781,16 +1797,16 @@
         <v>10030009</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -1810,16 +1826,16 @@
         <v>10030010</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1839,16 +1855,16 @@
         <v>10030011</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
@@ -1868,16 +1884,16 @@
         <v>10030012</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
@@ -1897,16 +1913,16 @@
         <v>10030013</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
@@ -1926,16 +1942,16 @@
         <v>10030014</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H16" s="1">
         <v>3</v>
@@ -1955,16 +1971,16 @@
         <v>10030015</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
@@ -1984,16 +2000,16 @@
         <v>10030016</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -2013,16 +2029,16 @@
         <v>10030017</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
@@ -2042,16 +2058,16 @@
         <v>10030018</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
@@ -2071,16 +2087,16 @@
         <v>10030019</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
@@ -2100,16 +2116,16 @@
         <v>10030020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
@@ -2129,16 +2145,16 @@
         <v>10030021</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H23" s="1">
         <v>3</v>
@@ -2158,16 +2174,16 @@
         <v>10050001</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H24" s="1">
         <v>5</v>
@@ -2187,16 +2203,16 @@
         <v>10050002</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H25" s="1">
         <v>5</v>
@@ -2216,16 +2232,16 @@
         <v>10050003</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" s="1">
         <v>5</v>
@@ -2245,16 +2261,16 @@
         <v>10050004</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H27" s="1">
         <v>5</v>
@@ -2274,16 +2290,16 @@
         <v>10050005</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="H28" s="1">
         <v>5</v>
@@ -2303,16 +2319,16 @@
         <v>10050006</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
@@ -2332,16 +2348,16 @@
         <v>10050007</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1">
         <v>5</v>
@@ -2361,16 +2377,16 @@
         <v>10050008</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H31" s="1">
         <v>5</v>
@@ -2390,16 +2406,16 @@
         <v>10050009</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H32" s="1">
         <v>5</v>
@@ -2419,16 +2435,16 @@
         <v>10060001</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="H33" s="1">
         <v>6</v>
@@ -2448,16 +2464,16 @@
         <v>10060002</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H34" s="1">
         <v>6</v>
@@ -2477,16 +2493,16 @@
         <v>10060003</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="H35" s="1">
         <v>6</v>
@@ -2506,16 +2522,16 @@
         <v>10060004</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H36" s="1">
         <v>6</v>
@@ -2535,16 +2551,16 @@
         <v>10070001</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="H37" s="1">
         <v>7</v>
@@ -2564,17 +2580,17 @@
         <v>10070002</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1">
         <v>7</v>
@@ -2594,16 +2610,16 @@
         <v>10080001</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H39" s="1">
         <v>8</v>
@@ -2623,16 +2639,16 @@
         <v>10080002</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="H40" s="1">
         <v>8</v>
@@ -2652,16 +2668,16 @@
         <v>10080003</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="H41" s="1">
         <v>8</v>
@@ -2681,16 +2697,16 @@
         <v>10080004</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="H42" s="1">
         <v>8</v>
@@ -2710,16 +2726,16 @@
         <v>10080005</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H43" s="1">
         <v>8</v>
@@ -2739,16 +2755,16 @@
         <v>10080006</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="H44" s="1">
         <v>8</v>
@@ -2768,16 +2784,16 @@
         <v>10080007</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="H45" s="1">
         <v>8</v>
@@ -2797,16 +2813,16 @@
         <v>10080008</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H46" s="1">
         <v>8</v>
@@ -2826,16 +2842,16 @@
         <v>10080009</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="H47" s="1">
         <v>8</v>
@@ -2855,16 +2871,16 @@
         <v>10080010</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="H48" s="1">
         <v>8</v>
@@ -2884,16 +2900,16 @@
         <v>10080011</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H49" s="1">
         <v>8</v>
@@ -2913,16 +2929,16 @@
         <v>10080012</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="H50" s="1">
         <v>8</v>
@@ -2942,16 +2958,16 @@
         <v>10080013</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H51" s="1">
         <v>8</v>
@@ -2971,16 +2987,16 @@
         <v>10080014</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="H52" s="1">
         <v>8</v>
@@ -3000,16 +3016,16 @@
         <v>10080015</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H53" s="1">
         <v>8</v>
@@ -3029,16 +3045,16 @@
         <v>10080016</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="H54" s="1">
         <v>8</v>
@@ -3058,13 +3074,13 @@
         <v>10080017</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H55" s="1">
         <v>8</v>
@@ -3084,16 +3100,16 @@
         <v>10080018</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="H56" s="1">
         <v>8</v>
@@ -3113,16 +3129,16 @@
         <v>10080019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H57" s="1">
         <v>8</v>
@@ -3142,16 +3158,16 @@
         <v>10080020</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="H58" s="1">
         <v>8</v>
@@ -3171,16 +3187,16 @@
         <v>10080021</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H59" s="1">
         <v>8</v>
@@ -3200,16 +3216,16 @@
         <v>10080022</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H60" s="1">
         <v>8</v>
@@ -3229,16 +3245,16 @@
         <v>10080023</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="H61" s="1">
         <v>8</v>
@@ -3258,16 +3274,16 @@
         <v>10080024</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="H62" s="1">
         <v>8</v>
@@ -3287,16 +3303,16 @@
         <v>10080025</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="H63" s="1">
         <v>8</v>
@@ -3316,16 +3332,16 @@
         <v>10080026</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="H64" s="1">
         <v>8</v>
@@ -3345,16 +3361,16 @@
         <v>10080027</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H65" s="1">
         <v>8</v>
@@ -3374,16 +3390,16 @@
         <v>10080028</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="H66" s="1">
         <v>8</v>
@@ -3403,16 +3419,16 @@
         <v>10080029</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H67" s="1">
         <v>8</v>
@@ -3432,16 +3448,16 @@
         <v>10080030</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H68" s="1">
         <v>8</v>
@@ -3461,16 +3477,16 @@
         <v>10080031</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="H69" s="1">
         <v>8</v>
@@ -3490,16 +3506,16 @@
         <v>10080032</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H70" s="1">
         <v>8</v>
@@ -3519,16 +3535,16 @@
         <v>10080033</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H71" s="1">
         <v>8</v>
@@ -3548,16 +3564,16 @@
         <v>10080034</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H72" s="1">
         <v>8</v>
@@ -3577,16 +3593,16 @@
         <v>10080035</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H73" s="1">
         <v>8</v>
@@ -3606,16 +3622,16 @@
         <v>10080036</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H74" s="1">
         <v>8</v>
@@ -3635,16 +3651,16 @@
         <v>10080037</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H75" s="1">
         <v>8</v>
@@ -3664,16 +3680,16 @@
         <v>10080038</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="H76" s="1">
         <v>8</v>
@@ -3693,16 +3709,16 @@
         <v>10080039</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="H77" s="1">
         <v>8</v>
@@ -3722,16 +3738,16 @@
         <v>10080040</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="H78" s="1">
         <v>8</v>
@@ -3751,16 +3767,16 @@
         <v>10080041</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="H79" s="1">
         <v>8</v>
@@ -3780,16 +3796,16 @@
         <v>10080042</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="H80" s="1">
         <v>8</v>
@@ -3809,16 +3825,16 @@
         <v>10080043</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="H81" s="1">
         <v>8</v>
@@ -3838,16 +3854,16 @@
         <v>10080044</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="H82" s="1">
         <v>8</v>
@@ -3867,16 +3883,16 @@
         <v>10080045</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="H83" s="1">
         <v>8</v>
@@ -3896,16 +3912,16 @@
         <v>10080046</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="H84" s="1">
         <v>8</v>
@@ -3925,16 +3941,16 @@
         <v>10080047</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="H85" s="1">
         <v>8</v>
@@ -3954,16 +3970,16 @@
         <v>10080048</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="H86" s="1">
         <v>8</v>
@@ -3983,16 +3999,16 @@
         <v>10080049</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H87" s="1">
         <v>8</v>
@@ -4012,16 +4028,16 @@
         <v>10080050</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="H88" s="1">
         <v>8</v>
@@ -4041,16 +4057,16 @@
         <v>10080051</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H89" s="1">
         <v>8</v>
@@ -4070,16 +4086,16 @@
         <v>10080052</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H90" s="1">
         <v>8</v>
@@ -4099,16 +4115,16 @@
         <v>10080053</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="H91" s="1">
         <v>8</v>
@@ -4128,16 +4144,16 @@
         <v>10080054</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="H92" s="1">
         <v>8</v>
@@ -4157,16 +4173,16 @@
         <v>10080055</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="H93" s="1">
         <v>8</v>
@@ -4186,16 +4202,16 @@
         <v>10080056</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="H94" s="1">
         <v>8</v>
@@ -4215,16 +4231,16 @@
         <v>10080057</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="H95" s="1">
         <v>8</v>
@@ -4244,16 +4260,16 @@
         <v>10080058</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H96" s="1">
         <v>8</v>
@@ -4270,814 +4286,93 @@
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>20010001</v>
+        <v>10080059</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>74</v>
+        <v>350</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="H97" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I97" s="1">
         <v>1</v>
       </c>
       <c r="J97" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>1</v>
-      </c>
-      <c r="B98" s="1">
-        <v>20010002</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H98" s="1">
-        <v>10</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>1</v>
-      </c>
-      <c r="B99" s="1">
-        <v>20010003</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H99" s="1">
-        <v>10</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1</v>
-      </c>
-      <c r="J99" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>1</v>
-      </c>
-      <c r="B100" s="1">
-        <v>20010004</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H100" s="1">
-        <v>10</v>
-      </c>
-      <c r="I100" s="1">
-        <v>1</v>
-      </c>
-      <c r="J100" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>1</v>
-      </c>
-      <c r="B101" s="1">
-        <v>20010005</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H101" s="1">
-        <v>10</v>
-      </c>
-      <c r="I101" s="1">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>1</v>
-      </c>
-      <c r="B102" s="1">
-        <v>20010006</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H102" s="1">
-        <v>10</v>
-      </c>
-      <c r="I102" s="1">
-        <v>1</v>
-      </c>
-      <c r="J102" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>1</v>
-      </c>
-      <c r="B103" s="1">
-        <v>20010007</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H103" s="1">
-        <v>10</v>
-      </c>
-      <c r="I103" s="1">
-        <v>1</v>
-      </c>
-      <c r="J103" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>1</v>
-      </c>
-      <c r="B104" s="1">
-        <v>20010008</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H104" s="1">
-        <v>10</v>
-      </c>
-      <c r="I104" s="1">
-        <v>1</v>
-      </c>
-      <c r="J104" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>1</v>
-      </c>
-      <c r="B105" s="1">
-        <v>20020001</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H105" s="1">
-        <v>11</v>
-      </c>
-      <c r="I105" s="1">
-        <v>1</v>
-      </c>
-      <c r="J105" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>1</v>
-      </c>
-      <c r="B106" s="1">
-        <v>20020002</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H106" s="1">
-        <v>11</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1</v>
-      </c>
-      <c r="J106" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>1</v>
-      </c>
-      <c r="B107" s="1">
-        <v>20020003</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H107" s="1">
-        <v>11</v>
-      </c>
-      <c r="I107" s="1">
-        <v>1</v>
-      </c>
-      <c r="J107" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>1</v>
-      </c>
-      <c r="B108" s="1">
-        <v>20020004</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H108" s="1">
-        <v>11</v>
-      </c>
-      <c r="I108" s="1">
-        <v>1</v>
-      </c>
-      <c r="J108" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>1</v>
-      </c>
-      <c r="B109" s="1">
-        <v>20030001</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H109" s="1">
-        <v>12</v>
-      </c>
-      <c r="I109" s="1">
-        <v>1</v>
-      </c>
-      <c r="J109" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>1</v>
-      </c>
-      <c r="B110" s="1">
-        <v>20030002</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H110" s="1">
-        <v>12</v>
-      </c>
-      <c r="I110" s="1">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1">
-        <v>3</v>
-      </c>
+      <c r="J102" s="4"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>1</v>
-      </c>
-      <c r="B111" s="1">
-        <v>30010001</v>
-      </c>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="E111" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H111" s="1">
-        <v>13</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1</v>
-      </c>
-      <c r="J111" s="1">
-        <v>3</v>
-      </c>
+      <c r="I111" s="4"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>1</v>
-      </c>
-      <c r="B112" s="1">
-        <v>30010002</v>
-      </c>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="E112" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H112" s="1">
-        <v>13</v>
-      </c>
-      <c r="I112" s="1">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>1</v>
-      </c>
-      <c r="B113" s="1">
-        <v>30010003</v>
-      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113"/>
       <c r="D113"/>
-      <c r="E113" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H113" s="1">
-        <v>13</v>
-      </c>
-      <c r="I113" s="1">
-        <v>1</v>
-      </c>
-      <c r="J113" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>1</v>
-      </c>
-      <c r="B114" s="1">
-        <v>30010004</v>
-      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114"/>
       <c r="D114"/>
-      <c r="E114" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H114" s="1">
-        <v>13</v>
-      </c>
-      <c r="I114" s="1">
-        <v>1</v>
-      </c>
-      <c r="J114" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>1</v>
-      </c>
-      <c r="B115" s="1">
-        <v>30010005</v>
-      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C115"/>
       <c r="D115"/>
-      <c r="E115" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H115" s="1">
-        <v>13</v>
-      </c>
-      <c r="I115" s="1">
-        <v>1</v>
-      </c>
-      <c r="J115" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>1</v>
-      </c>
-      <c r="B116" s="1">
-        <v>30010006</v>
-      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C116"/>
       <c r="D116"/>
-      <c r="E116" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H116" s="1">
-        <v>13</v>
-      </c>
-      <c r="I116" s="1">
-        <v>1</v>
-      </c>
-      <c r="J116" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>1</v>
-      </c>
-      <c r="B117" s="1">
-        <v>30010007</v>
-      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117"/>
       <c r="D117"/>
-      <c r="E117" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H117" s="1">
-        <v>13</v>
-      </c>
-      <c r="I117" s="1">
-        <v>1</v>
-      </c>
-      <c r="J117" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>1</v>
-      </c>
-      <c r="B118" s="1">
-        <v>30010008</v>
-      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118"/>
       <c r="D118"/>
-      <c r="E118" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H118" s="1">
-        <v>13</v>
-      </c>
-      <c r="I118" s="1">
-        <v>1</v>
-      </c>
-      <c r="J118" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>1</v>
-      </c>
-      <c r="B119" s="1">
-        <v>30010009</v>
-      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C119"/>
       <c r="D119"/>
-      <c r="E119" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H119" s="1">
-        <v>13</v>
-      </c>
-      <c r="I119" s="1">
-        <v>1</v>
-      </c>
-      <c r="J119" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>1</v>
-      </c>
-      <c r="B120" s="1">
-        <v>30010010</v>
-      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C120"/>
       <c r="D120"/>
-      <c r="E120" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H120" s="1">
-        <v>13</v>
-      </c>
-      <c r="I120" s="1">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>1</v>
-      </c>
-      <c r="B121" s="1">
-        <v>30010011</v>
-      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C121"/>
       <c r="D121"/>
-      <c r="E121" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H121" s="1">
-        <v>13</v>
-      </c>
-      <c r="I121" s="1">
-        <v>1</v>
-      </c>
-      <c r="J121" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>1</v>
-      </c>
-      <c r="B122" s="1">
-        <v>30010012</v>
-      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C122"/>
       <c r="D122"/>
-      <c r="E122" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H122" s="1">
-        <v>13</v>
-      </c>
-      <c r="I122" s="1">
-        <v>1</v>
-      </c>
-      <c r="J122" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>1</v>
-      </c>
-      <c r="B123" s="1">
-        <v>30010013</v>
-      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123"/>
       <c r="D123"/>
-      <c r="E123" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H123" s="1">
-        <v>13</v>
-      </c>
-      <c r="I123" s="1">
-        <v>1</v>
-      </c>
-      <c r="J123" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>1</v>
-      </c>
-      <c r="B124" s="1">
-        <v>30010014</v>
-      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C124"/>
       <c r="D124"/>
-      <c r="E124" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H124" s="1">
-        <v>13</v>
-      </c>
-      <c r="I124" s="1">
-        <v>1</v>
-      </c>
-      <c r="J124" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>1</v>
-      </c>
-      <c r="B125" s="1">
-        <v>30010015</v>
-      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C125"/>
       <c r="D125"/>
-      <c r="E125" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H125" s="1">
-        <v>13</v>
-      </c>
-      <c r="I125" s="1">
-        <v>1</v>
-      </c>
-      <c r="J125" s="1">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <sortState ref="A2:K127">
@@ -5096,28 +4391,842 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" s="1">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>30010002</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30010003</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30010004</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30010005</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30010006</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30010007</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30010008</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30010009</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30010010</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30010011</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>30010012</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>30010013</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" s="1">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>20010001</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="1">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20010002</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20010003</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20010004</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20010005</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20010006</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20010007</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20010008</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20020001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20020002</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20020003</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20020004</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20030001</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20030002</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\造物空间\IWedding\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新建文件夹\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$9</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="351">
   <si>
     <t>图片</t>
   </si>
@@ -47,19 +48,6 @@
   </si>
   <si>
     <t>道具类型</t>
-  </si>
-  <si>
-    <t>放置类型
-1、地面放置
-2、桌面放置
-3、贴墙放置
-4、贴顶放置</t>
-  </si>
-  <si>
-    <t>风格
-1、中式
-2、欧式
-3、</t>
   </si>
   <si>
     <t>价格</t>
@@ -917,211 +905,239 @@
     <t>心形花图</t>
   </si>
   <si>
+    <t>Item\new\6\23\心型花圈</t>
+  </si>
+  <si>
+    <t>旋转射灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/RadiationLamp</t>
+  </si>
+  <si>
+    <t>射灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/Spotlight</t>
+  </si>
+  <si>
+    <t>氛围灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/3</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/BallLamp</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/4</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Spotlight/Lamp/LaserSpotlight</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/5</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Light/PointLight</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/6</t>
+  </si>
+  <si>
+    <t>Item/new/tx/FlatLamp/FlatLamp</t>
+  </si>
+  <si>
+    <t>圆柱日光灯</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/light/7</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Light/TubeLight</t>
+  </si>
+  <si>
+    <t>Item/new/6/8/1</t>
+  </si>
+  <si>
+    <t>Item/new/6/8/pre</t>
+  </si>
+  <si>
+    <t>气泡特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Bubble/Bubble</t>
+  </si>
+  <si>
+    <t>烟雾特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Smoke/Smoke</t>
+  </si>
+  <si>
+    <t>花瓣特效</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/3</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Particle/Sprinkle/Sprinkle</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/fenwei/4</t>
+  </si>
+  <si>
+    <t>Item/new/tx/FlowerGroup/FlowerWall</t>
+  </si>
+  <si>
+    <t>男人模型</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/people/1</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Role/Man</t>
+  </si>
+  <si>
+    <t>女人模型</t>
+  </si>
+  <si>
+    <t>Item/new/tx/img/people/2</t>
+  </si>
+  <si>
+    <t>Item/new/tx/Role/Girl</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/1</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door1</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/2</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door2</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/3</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door3</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/4</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door4</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/5</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door5</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/6</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door6</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/7</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door7</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/8</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door8</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/9</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door9</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/10</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door10</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/11</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door11</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/12</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door12</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/13</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door13</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/14</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door14</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/img/15</t>
+  </si>
+  <si>
+    <t>Item/DoorDouble/DoorList/door15</t>
+  </si>
+  <si>
     <t>Item\new\6\img\20</t>
-  </si>
-  <si>
-    <t>Item\new\6\23\心型花圈</t>
-  </si>
-  <si>
-    <t>旋转射灯</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/RadiationLamp</t>
-  </si>
-  <si>
-    <t>射灯</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/Spotlight</t>
-  </si>
-  <si>
-    <t>氛围灯</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/3</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/BallLamp</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/4</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Spotlight/Lamp/LaserSpotlight</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/5</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Light/PointLight</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/6</t>
-  </si>
-  <si>
-    <t>Item/new/tx/FlatLamp/FlatLamp</t>
-  </si>
-  <si>
-    <t>圆柱日光灯</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/light/7</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Light/TubeLight</t>
-  </si>
-  <si>
-    <t>Item/new/6/8/1</t>
-  </si>
-  <si>
-    <t>Item/new/6/8/pre</t>
-  </si>
-  <si>
-    <t>气泡特效</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Bubble/Bubble</t>
-  </si>
-  <si>
-    <t>烟雾特效</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Smoke/Smoke</t>
-  </si>
-  <si>
-    <t>花瓣特效</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/3</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Particle/Sprinkle/Sprinkle</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/fenwei/4</t>
-  </si>
-  <si>
-    <t>Item/new/tx/FlowerGroup/FlowerWall</t>
-  </si>
-  <si>
-    <t>男人模型</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/people/1</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Role/Man</t>
-  </si>
-  <si>
-    <t>女人模型</t>
-  </si>
-  <si>
-    <t>Item/new/tx/img/people/2</t>
-  </si>
-  <si>
-    <t>Item/new/tx/Role/Girl</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/1</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door1</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/2</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door2</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/3</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door3</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/4</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door4</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/5</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door5</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/6</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door6</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/7</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door7</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/8</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door8</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/9</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door9</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/10</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door10</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/11</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door11</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/12</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door12</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/13</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door13</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/14</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door14</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/img/15</t>
-  </si>
-  <si>
-    <t>Item/DoorDouble/DoorList/door15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹顶鹤模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格
+1、中式
+2、欧式
+3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置类型
+1、地面放置
+2、桌面放置
+3、贴墙放置
+4、贴顶放置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\24\缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\24\丹顶鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1458,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1503,13 +1519,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1520,16 +1536,16 @@
         <v>10010001</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1549,16 +1565,16 @@
         <v>10030001</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
@@ -1578,16 +1594,16 @@
         <v>10030002</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -1607,16 +1623,16 @@
         <v>10030003</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -1636,16 +1652,16 @@
         <v>10030004</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1665,16 +1681,16 @@
         <v>10030005</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -1694,16 +1710,16 @@
         <v>10030006</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -1723,16 +1739,16 @@
         <v>10030007</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
@@ -1752,16 +1768,16 @@
         <v>10030008</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -1781,16 +1797,16 @@
         <v>10030009</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -1810,16 +1826,16 @@
         <v>10030010</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1839,16 +1855,16 @@
         <v>10030011</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
@@ -1868,16 +1884,16 @@
         <v>10030012</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
@@ -1897,16 +1913,16 @@
         <v>10030013</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
@@ -1926,16 +1942,16 @@
         <v>10030014</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H16" s="1">
         <v>3</v>
@@ -1955,16 +1971,16 @@
         <v>10030015</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
@@ -1984,16 +2000,16 @@
         <v>10030016</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -2013,16 +2029,16 @@
         <v>10030017</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
@@ -2042,16 +2058,16 @@
         <v>10030018</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
@@ -2071,16 +2087,16 @@
         <v>10030019</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
@@ -2100,16 +2116,16 @@
         <v>10030020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
@@ -2129,16 +2145,16 @@
         <v>10030021</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H23" s="1">
         <v>3</v>
@@ -2158,16 +2174,16 @@
         <v>10050001</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H24" s="1">
         <v>5</v>
@@ -2187,16 +2203,16 @@
         <v>10050002</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H25" s="1">
         <v>5</v>
@@ -2216,16 +2232,16 @@
         <v>10050003</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" s="1">
         <v>5</v>
@@ -2245,16 +2261,16 @@
         <v>10050004</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H27" s="1">
         <v>5</v>
@@ -2274,16 +2290,16 @@
         <v>10050005</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="H28" s="1">
         <v>5</v>
@@ -2303,16 +2319,16 @@
         <v>10050006</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
@@ -2332,16 +2348,16 @@
         <v>10050007</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1">
         <v>5</v>
@@ -2361,16 +2377,16 @@
         <v>10050008</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H31" s="1">
         <v>5</v>
@@ -2390,16 +2406,16 @@
         <v>10050009</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H32" s="1">
         <v>5</v>
@@ -2419,16 +2435,16 @@
         <v>10060001</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="H33" s="1">
         <v>6</v>
@@ -2448,16 +2464,16 @@
         <v>10060002</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H34" s="1">
         <v>6</v>
@@ -2477,16 +2493,16 @@
         <v>10060003</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="H35" s="1">
         <v>6</v>
@@ -2506,16 +2522,16 @@
         <v>10060004</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H36" s="1">
         <v>6</v>
@@ -2535,16 +2551,16 @@
         <v>10070001</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="H37" s="1">
         <v>7</v>
@@ -2564,17 +2580,17 @@
         <v>10070002</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1">
         <v>7</v>
@@ -2594,16 +2610,16 @@
         <v>10080001</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H39" s="1">
         <v>8</v>
@@ -2623,16 +2639,16 @@
         <v>10080002</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="H40" s="1">
         <v>8</v>
@@ -2652,16 +2668,16 @@
         <v>10080003</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="H41" s="1">
         <v>8</v>
@@ -2681,16 +2697,16 @@
         <v>10080004</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="H42" s="1">
         <v>8</v>
@@ -2710,16 +2726,16 @@
         <v>10080005</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H43" s="1">
         <v>8</v>
@@ -2739,16 +2755,16 @@
         <v>10080006</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="H44" s="1">
         <v>8</v>
@@ -2768,16 +2784,16 @@
         <v>10080007</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="H45" s="1">
         <v>8</v>
@@ -2797,16 +2813,16 @@
         <v>10080008</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H46" s="1">
         <v>8</v>
@@ -2826,16 +2842,16 @@
         <v>10080009</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="H47" s="1">
         <v>8</v>
@@ -2855,16 +2871,16 @@
         <v>10080010</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="H48" s="1">
         <v>8</v>
@@ -2884,16 +2900,16 @@
         <v>10080011</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H49" s="1">
         <v>8</v>
@@ -2913,16 +2929,16 @@
         <v>10080012</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="H50" s="1">
         <v>8</v>
@@ -2942,16 +2958,16 @@
         <v>10080013</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H51" s="1">
         <v>8</v>
@@ -2971,16 +2987,16 @@
         <v>10080014</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="H52" s="1">
         <v>8</v>
@@ -3000,16 +3016,16 @@
         <v>10080015</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H53" s="1">
         <v>8</v>
@@ -3029,16 +3045,16 @@
         <v>10080016</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="H54" s="1">
         <v>8</v>
@@ -3058,13 +3074,13 @@
         <v>10080017</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H55" s="1">
         <v>8</v>
@@ -3084,16 +3100,16 @@
         <v>10080018</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="H56" s="1">
         <v>8</v>
@@ -3113,16 +3129,16 @@
         <v>10080019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H57" s="1">
         <v>8</v>
@@ -3142,16 +3158,16 @@
         <v>10080020</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="H58" s="1">
         <v>8</v>
@@ -3171,16 +3187,16 @@
         <v>10080021</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H59" s="1">
         <v>8</v>
@@ -3200,16 +3216,16 @@
         <v>10080022</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H60" s="1">
         <v>8</v>
@@ -3229,16 +3245,16 @@
         <v>10080023</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="H61" s="1">
         <v>8</v>
@@ -3258,16 +3274,16 @@
         <v>10080024</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="H62" s="1">
         <v>8</v>
@@ -3287,16 +3303,16 @@
         <v>10080025</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="H63" s="1">
         <v>8</v>
@@ -3316,16 +3332,16 @@
         <v>10080026</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="H64" s="1">
         <v>8</v>
@@ -3345,16 +3361,16 @@
         <v>10080027</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H65" s="1">
         <v>8</v>
@@ -3374,16 +3390,16 @@
         <v>10080028</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="H66" s="1">
         <v>8</v>
@@ -3403,16 +3419,16 @@
         <v>10080029</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H67" s="1">
         <v>8</v>
@@ -3432,16 +3448,16 @@
         <v>10080030</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H68" s="1">
         <v>8</v>
@@ -3461,16 +3477,16 @@
         <v>10080031</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="H69" s="1">
         <v>8</v>
@@ -3490,16 +3506,16 @@
         <v>10080032</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H70" s="1">
         <v>8</v>
@@ -3519,16 +3535,16 @@
         <v>10080033</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H71" s="1">
         <v>8</v>
@@ -3548,16 +3564,16 @@
         <v>10080034</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H72" s="1">
         <v>8</v>
@@ -3577,16 +3593,16 @@
         <v>10080035</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H73" s="1">
         <v>8</v>
@@ -3606,16 +3622,16 @@
         <v>10080036</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H74" s="1">
         <v>8</v>
@@ -3635,16 +3651,16 @@
         <v>10080037</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H75" s="1">
         <v>8</v>
@@ -3664,16 +3680,16 @@
         <v>10080038</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="H76" s="1">
         <v>8</v>
@@ -3693,16 +3709,16 @@
         <v>10080039</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="H77" s="1">
         <v>8</v>
@@ -3722,16 +3738,16 @@
         <v>10080040</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="H78" s="1">
         <v>8</v>
@@ -3751,16 +3767,16 @@
         <v>10080041</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="H79" s="1">
         <v>8</v>
@@ -3780,16 +3796,16 @@
         <v>10080042</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="H80" s="1">
         <v>8</v>
@@ -3809,16 +3825,16 @@
         <v>10080043</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="H81" s="1">
         <v>8</v>
@@ -3838,16 +3854,16 @@
         <v>10080044</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="H82" s="1">
         <v>8</v>
@@ -3867,16 +3883,16 @@
         <v>10080045</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="H83" s="1">
         <v>8</v>
@@ -3896,16 +3912,16 @@
         <v>10080046</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="H84" s="1">
         <v>8</v>
@@ -3925,16 +3941,16 @@
         <v>10080047</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="H85" s="1">
         <v>8</v>
@@ -3954,16 +3970,16 @@
         <v>10080048</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="H86" s="1">
         <v>8</v>
@@ -3983,16 +3999,16 @@
         <v>10080049</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H87" s="1">
         <v>8</v>
@@ -4012,16 +4028,16 @@
         <v>10080050</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="H88" s="1">
         <v>8</v>
@@ -4041,16 +4057,16 @@
         <v>10080051</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H89" s="1">
         <v>8</v>
@@ -4070,16 +4086,16 @@
         <v>10080052</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H90" s="1">
         <v>8</v>
@@ -4099,16 +4115,16 @@
         <v>10080053</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="H91" s="1">
         <v>8</v>
@@ -4128,16 +4144,16 @@
         <v>10080054</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="H92" s="1">
         <v>8</v>
@@ -4157,16 +4173,16 @@
         <v>10080055</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="H93" s="1">
         <v>8</v>
@@ -4186,16 +4202,16 @@
         <v>10080056</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="H94" s="1">
         <v>8</v>
@@ -4215,16 +4231,16 @@
         <v>10080057</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="H95" s="1">
         <v>8</v>
@@ -4244,16 +4260,16 @@
         <v>10080058</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H96" s="1">
         <v>8</v>
@@ -4270,814 +4286,93 @@
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>20010001</v>
+        <v>10080059</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>74</v>
+        <v>349</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="H97" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I97" s="1">
         <v>1</v>
       </c>
       <c r="J97" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>1</v>
-      </c>
-      <c r="B98" s="1">
-        <v>20010002</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H98" s="1">
-        <v>10</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>1</v>
-      </c>
-      <c r="B99" s="1">
-        <v>20010003</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H99" s="1">
-        <v>10</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1</v>
-      </c>
-      <c r="J99" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>1</v>
-      </c>
-      <c r="B100" s="1">
-        <v>20010004</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H100" s="1">
-        <v>10</v>
-      </c>
-      <c r="I100" s="1">
-        <v>1</v>
-      </c>
-      <c r="J100" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>1</v>
-      </c>
-      <c r="B101" s="1">
-        <v>20010005</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H101" s="1">
-        <v>10</v>
-      </c>
-      <c r="I101" s="1">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>1</v>
-      </c>
-      <c r="B102" s="1">
-        <v>20010006</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H102" s="1">
-        <v>10</v>
-      </c>
-      <c r="I102" s="1">
-        <v>1</v>
-      </c>
-      <c r="J102" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>1</v>
-      </c>
-      <c r="B103" s="1">
-        <v>20010007</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H103" s="1">
-        <v>10</v>
-      </c>
-      <c r="I103" s="1">
-        <v>1</v>
-      </c>
-      <c r="J103" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>1</v>
-      </c>
-      <c r="B104" s="1">
-        <v>20010008</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H104" s="1">
-        <v>10</v>
-      </c>
-      <c r="I104" s="1">
-        <v>1</v>
-      </c>
-      <c r="J104" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>1</v>
-      </c>
-      <c r="B105" s="1">
-        <v>20020001</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H105" s="1">
-        <v>11</v>
-      </c>
-      <c r="I105" s="1">
-        <v>1</v>
-      </c>
-      <c r="J105" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>1</v>
-      </c>
-      <c r="B106" s="1">
-        <v>20020002</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H106" s="1">
-        <v>11</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1</v>
-      </c>
-      <c r="J106" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>1</v>
-      </c>
-      <c r="B107" s="1">
-        <v>20020003</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H107" s="1">
-        <v>11</v>
-      </c>
-      <c r="I107" s="1">
-        <v>1</v>
-      </c>
-      <c r="J107" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>1</v>
-      </c>
-      <c r="B108" s="1">
-        <v>20020004</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H108" s="1">
-        <v>11</v>
-      </c>
-      <c r="I108" s="1">
-        <v>1</v>
-      </c>
-      <c r="J108" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>1</v>
-      </c>
-      <c r="B109" s="1">
-        <v>20030001</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H109" s="1">
-        <v>12</v>
-      </c>
-      <c r="I109" s="1">
-        <v>1</v>
-      </c>
-      <c r="J109" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>1</v>
-      </c>
-      <c r="B110" s="1">
-        <v>20030002</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H110" s="1">
-        <v>12</v>
-      </c>
-      <c r="I110" s="1">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1">
-        <v>3</v>
-      </c>
+      <c r="J102" s="4"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>1</v>
-      </c>
-      <c r="B111" s="1">
-        <v>30010001</v>
-      </c>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="E111" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H111" s="1">
-        <v>13</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1</v>
-      </c>
-      <c r="J111" s="1">
-        <v>3</v>
-      </c>
+      <c r="I111" s="4"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>1</v>
-      </c>
-      <c r="B112" s="1">
-        <v>30010002</v>
-      </c>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="E112" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H112" s="1">
-        <v>13</v>
-      </c>
-      <c r="I112" s="1">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>1</v>
-      </c>
-      <c r="B113" s="1">
-        <v>30010003</v>
-      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113"/>
       <c r="D113"/>
-      <c r="E113" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H113" s="1">
-        <v>13</v>
-      </c>
-      <c r="I113" s="1">
-        <v>1</v>
-      </c>
-      <c r="J113" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>1</v>
-      </c>
-      <c r="B114" s="1">
-        <v>30010004</v>
-      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114"/>
       <c r="D114"/>
-      <c r="E114" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H114" s="1">
-        <v>13</v>
-      </c>
-      <c r="I114" s="1">
-        <v>1</v>
-      </c>
-      <c r="J114" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>1</v>
-      </c>
-      <c r="B115" s="1">
-        <v>30010005</v>
-      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C115"/>
       <c r="D115"/>
-      <c r="E115" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H115" s="1">
-        <v>13</v>
-      </c>
-      <c r="I115" s="1">
-        <v>1</v>
-      </c>
-      <c r="J115" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>1</v>
-      </c>
-      <c r="B116" s="1">
-        <v>30010006</v>
-      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C116"/>
       <c r="D116"/>
-      <c r="E116" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H116" s="1">
-        <v>13</v>
-      </c>
-      <c r="I116" s="1">
-        <v>1</v>
-      </c>
-      <c r="J116" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>1</v>
-      </c>
-      <c r="B117" s="1">
-        <v>30010007</v>
-      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117"/>
       <c r="D117"/>
-      <c r="E117" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H117" s="1">
-        <v>13</v>
-      </c>
-      <c r="I117" s="1">
-        <v>1</v>
-      </c>
-      <c r="J117" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>1</v>
-      </c>
-      <c r="B118" s="1">
-        <v>30010008</v>
-      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118"/>
       <c r="D118"/>
-      <c r="E118" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H118" s="1">
-        <v>13</v>
-      </c>
-      <c r="I118" s="1">
-        <v>1</v>
-      </c>
-      <c r="J118" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>1</v>
-      </c>
-      <c r="B119" s="1">
-        <v>30010009</v>
-      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C119"/>
       <c r="D119"/>
-      <c r="E119" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H119" s="1">
-        <v>13</v>
-      </c>
-      <c r="I119" s="1">
-        <v>1</v>
-      </c>
-      <c r="J119" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>1</v>
-      </c>
-      <c r="B120" s="1">
-        <v>30010010</v>
-      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C120"/>
       <c r="D120"/>
-      <c r="E120" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H120" s="1">
-        <v>13</v>
-      </c>
-      <c r="I120" s="1">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>1</v>
-      </c>
-      <c r="B121" s="1">
-        <v>30010011</v>
-      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C121"/>
       <c r="D121"/>
-      <c r="E121" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H121" s="1">
-        <v>13</v>
-      </c>
-      <c r="I121" s="1">
-        <v>1</v>
-      </c>
-      <c r="J121" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>1</v>
-      </c>
-      <c r="B122" s="1">
-        <v>30010012</v>
-      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C122"/>
       <c r="D122"/>
-      <c r="E122" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H122" s="1">
-        <v>13</v>
-      </c>
-      <c r="I122" s="1">
-        <v>1</v>
-      </c>
-      <c r="J122" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>1</v>
-      </c>
-      <c r="B123" s="1">
-        <v>30010013</v>
-      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123"/>
       <c r="D123"/>
-      <c r="E123" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H123" s="1">
-        <v>13</v>
-      </c>
-      <c r="I123" s="1">
-        <v>1</v>
-      </c>
-      <c r="J123" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>1</v>
-      </c>
-      <c r="B124" s="1">
-        <v>30010014</v>
-      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C124"/>
       <c r="D124"/>
-      <c r="E124" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H124" s="1">
-        <v>13</v>
-      </c>
-      <c r="I124" s="1">
-        <v>1</v>
-      </c>
-      <c r="J124" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>1</v>
-      </c>
-      <c r="B125" s="1">
-        <v>30010015</v>
-      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C125"/>
       <c r="D125"/>
-      <c r="E125" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H125" s="1">
-        <v>13</v>
-      </c>
-      <c r="I125" s="1">
-        <v>1</v>
-      </c>
-      <c r="J125" s="1">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <sortState ref="A2:K127">
@@ -5096,32 +4391,936 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="7" max="7" width="54.625" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20010001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20010002</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20010003</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20010004</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20010005</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20010006</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20010007</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20010008</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20020001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20020002</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20020003</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20020004</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20030001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20030002</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>"1.吊灯,2.舞台,3.花瓶,4.T台,5.酒桌,6.龙门架,7.台版,8.装饰,9.组合,10.灯光,11.氛围,12.人物"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30010002</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30010003</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30010004</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30010005</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30010006</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30010007</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30010008</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30010009</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30010010</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>30010011</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>30010012</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="1">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>30010013</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>30010015</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H16" s="1">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>"1.吊灯,2.舞台,3.花瓶,4.T台,5.酒桌,6.龙门架,7.台版,8.装饰,9.组合,10.灯光,11.氛围,12.人物"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="362">
   <si>
     <t>图片</t>
   </si>
@@ -1132,11 +1132,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item\new\6\24\缩略图</t>
+    <t>Item\new\6\24\丹顶鹤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item\new\6\24\丹顶鹤</t>
+    <t>红色花簇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\25\大红花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\25\花草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\26\大花栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁艺花架</t>
+  </si>
+  <si>
+    <t>铁艺花架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\27\铁艺花架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\24\10080059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\25\10080060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\25\10080061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\26\10080062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\27\10080063</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,7 +1187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,6 +1198,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1181,7 +1232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,6 +1247,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4291,22 +4345,138 @@
       <c r="C97" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1">
+        <v>8</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1">
+        <v>10080060</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H97" s="1">
-        <v>8</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1</v>
-      </c>
-      <c r="J97" s="1">
+      <c r="E98" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H98" s="1">
+        <v>8</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>10080061</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H99" s="1">
+        <v>8</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>10080062</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H100" s="1">
+        <v>8</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10080063</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H101" s="1">
+        <v>8</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4385,7 +4555,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -1144,42 +1144,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Item\new\6\26\大花栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁艺花架</t>
+  </si>
+  <si>
+    <t>铁艺花架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\24\10080059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\25\10080060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\25\10080061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\26\10080062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\27\10080063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Item\new\6\25\花草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item\new\6\26\大花栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁艺花架</t>
-  </si>
-  <si>
-    <t>铁艺花架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item\new\6\27\铁艺花架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item\new\6\24\10080059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item\new\6\25\10080060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item\new\6\25\10080061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item\new\6\26\10080062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item\new\6\27\10080063</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4346,7 +4346,7 @@
         <v>346</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>72</v>
@@ -4375,7 +4375,7 @@
         <v>350</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>72</v>
@@ -4404,13 +4404,13 @@
         <v>350</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H99" s="1">
         <v>8</v>
@@ -4430,16 +4430,16 @@
         <v>10080062</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H100" s="1">
         <v>8</v>
@@ -4459,16 +4459,16 @@
         <v>10080063</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E101" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="H101" s="1">
         <v>8</v>

--- a/Assets/Data/test.xlsx
+++ b/Assets/Data/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="442">
   <si>
     <t>图片</t>
   </si>
@@ -1180,6 +1180,325 @@
   </si>
   <si>
     <t>Item\new\6\27\铁艺花架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\28\花艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\28\10080064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦苇花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\29\芦苇花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\29\10080065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\1\10080066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\1\花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\2\10080067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\2\绿草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\3\10080068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\3\花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红玫瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\4\10080069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\4\芦苇花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦苇花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\5\10080070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\5\花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\6\10080071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\6\花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\6\10080072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\6\10080073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\6\花1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\6\花2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\6\铁架台子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红花造型</t>
+  </si>
+  <si>
+    <t>红花造型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁架花瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\6\10080074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色花朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\7\10080075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\7\花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\8\10080076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\8\花球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\9\10080077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\9\玫瑰爬墙花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦苇花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\10\10080078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\10\芦苇花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色花朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\11\10080079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\11\花瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色玫瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\12\10080080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\12\玫瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\13\10080081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\13\绿墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\14\10080082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\14\10080083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\14\10080084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白花门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红花门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\14\花盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\14\花门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\14\花门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\15\花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色花簇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\15\10080085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色花篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\16\花篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\16\10080086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黄花篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\17\花篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\17\10080087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\18\铁门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\18\10080088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦苇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\19\10080089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\19\芦苇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\20\10080090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item\new\6\30\20\花墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉红花墙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1526,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4481,68 +4800,787 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J102" s="4"/>
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <v>10080064</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H102" s="1">
+        <v>8</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1">
+        <v>10080065</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H103" s="1">
+        <v>8</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1">
+        <v>10080066</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H104" s="1">
+        <v>8</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1">
+        <v>10080067</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H105" s="1">
+        <v>8</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10080068</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H106" s="1">
+        <v>8</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1">
+        <v>10080069</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H107" s="1">
+        <v>8</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>10080070</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H108" s="1">
+        <v>8</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1">
+        <v>10080071</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H109" s="1">
+        <v>8</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1">
+        <v>10080072</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H110" s="1">
+        <v>8</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="I111" s="4"/>
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <v>10080073</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H111" s="1">
+        <v>8</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C112"/>
-      <c r="D112"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113"/>
-      <c r="D113"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114"/>
-      <c r="D114"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115"/>
-      <c r="D115"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116"/>
-      <c r="D116"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117"/>
-      <c r="D117"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118"/>
-      <c r="D118"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119"/>
-      <c r="D119"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120"/>
-      <c r="D120"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121"/>
-      <c r="D121"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122"/>
-      <c r="D122"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123"/>
-      <c r="D123"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124"/>
-      <c r="D124"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125"/>
-      <c r="D125"/>
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1">
+        <v>10080074</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H112" s="1">
+        <v>8</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1">
+        <v>10080075</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H113" s="1">
+        <v>8</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1">
+        <v>10080076</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H114" s="1">
+        <v>8</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1">
+        <v>10080077</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H115" s="1">
+        <v>8</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>10080078</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H116" s="1">
+        <v>8</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1">
+        <v>10080079</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H117" s="1">
+        <v>8</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1">
+        <v>10080080</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H118" s="1">
+        <v>8</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1">
+        <v>10080081</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="H119" s="1">
+        <v>8</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1</v>
+      </c>
+      <c r="J119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1">
+        <v>10080082</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H120" s="1">
+        <v>8</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1">
+        <v>10080083</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="H121" s="1">
+        <v>8</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1">
+        <v>10080084</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H122" s="1">
+        <v>8</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1</v>
+      </c>
+      <c r="J122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1">
+        <v>10080085</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H123" s="1">
+        <v>8</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1</v>
+      </c>
+      <c r="J123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <v>10080086</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H124" s="1">
+        <v>8</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1">
+        <v>10080087</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H125" s="1">
+        <v>8</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1">
+        <v>10080088</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H126" s="1">
+        <v>8</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1">
+        <v>10080089</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H127" s="1">
+        <v>8</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1">
+        <v>10080090</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H128" s="1">
+        <v>8</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1</v>
+      </c>
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:K127">
